--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1424963.369647999</v>
+        <v>1394781.133497872</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625948.6630396504</v>
+        <v>625948.6630396501</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156752</v>
+        <v>5996855.681156754</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9380751.680079419</v>
+        <v>9380751.680079421</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>173.3648705534648</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.452171367011</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>106.423610151193</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -949,16 +949,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>99.69856304335846</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>156.127162662147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>161.500346881775</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>403.2634945072138</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>20.31656064018903</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>294.7648897394639</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>320.6160979309287</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>37.83808333974876</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>196.7218456862862</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>116.0469435197786</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.925119512543551</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>308.4393196652579</v>
+        <v>391.0820166340255</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>26.94389492651026</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>168.3414238818276</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2298,16 +2298,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>162.5776147681361</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>129.8188433654457</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826969</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>152.5299750832467</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.87888083197834</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I24" t="n">
-        <v>50.85619463218983</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>30.65739549896763</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S24" t="n">
         <v>150.8909729053131</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.3490825967930481</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
-        <v>116.1448144394945</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>321.6040659896129</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>53.25180475196693</v>
       </c>
       <c r="G26" t="n">
         <v>413.2106022137938</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.44902381826969</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I27" t="n">
-        <v>50.85619463218983</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>30.65739549896763</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S27" t="n">
         <v>150.8909729053131</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>27.01006717676059</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,28 +2757,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.578826164188754</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>110.1502607079953</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>212.3059656622415</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>168.6866186044016</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
-        <v>204.7496483729792</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I30" t="n">
-        <v>50.85619463218983</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>30.65739549896763</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S30" t="n">
         <v>150.8909729053131</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>105.7443427977097</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>81.95614334194903</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>318.0487214609057</v>
+        <v>77.97049143654111</v>
       </c>
       <c r="I32" t="n">
         <v>129.8188433654457</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.44902381826969</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S32" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>13.99947658703493</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I33" t="n">
-        <v>50.85619463218983</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>30.65739549896763</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S33" t="n">
         <v>150.8909729053131</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>24.89465984691797</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>16.74223787077029</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>374.6462919191346</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
-        <v>89.64441828034222</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S35" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I36" t="n">
-        <v>50.85619463218983</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>30.65739549896763</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S36" t="n">
         <v>150.8909729053131</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>80.64248799623994</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S37" t="n">
-        <v>116.1448144394945</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826969</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>244.8281851478202</v>
+        <v>35.54493829810275</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85619463218983</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.65739549896763</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S39" t="n">
         <v>150.8909729053131</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2678406362081</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>116.1448144394945</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>191.465147760743</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>324.6674591255905</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>263.2772089660897</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I42" t="n">
-        <v>50.85619463218983</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.65739549896763</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S42" t="n">
         <v>150.8909729053131</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>15.91599998519565</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,28 +3942,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.578826164188754</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>151.8118546648521</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,10 +3982,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>77.97049143654178</v>
+        <v>213.5479530062888</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>92.4462938262879</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>193.8016305687513</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1924.457674141023</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1924.457674141023</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205144</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205144</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205144</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2311.057514205144</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="D5" t="n">
         <v>1422.14692331494</v>
@@ -4564,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1780.41262192169</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1780.41262192169</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.241103772296</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4910,25 +4910,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>678.1902866356228</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>678.1902866356228</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323009</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323009</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>923.1150787952333</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C11" t="n">
-        <v>923.1150787952333</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D11" t="n">
-        <v>923.1150787952333</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E11" t="n">
-        <v>923.1150787952333</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>923.1150787952333</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>505.1512706934202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.483574129469</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859355</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X11" t="n">
-        <v>1309.714918859355</v>
+        <v>1634.434214560355</v>
       </c>
       <c r="Y11" t="n">
-        <v>1309.714918859355</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5132,10 +5132,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>92.16326802213086</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5226,25 +5226,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2476.569858826099</v>
+        <v>940.4137200851858</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036444</v>
@@ -5284,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2695.204525854037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2695.204525854037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2476.569858826099</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V14" t="n">
-        <v>2476.569858826099</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.569858826099</v>
+        <v>2090.618650386199</v>
       </c>
       <c r="X14" t="n">
-        <v>2476.569858826099</v>
+        <v>1717.152892125119</v>
       </c>
       <c r="Y14" t="n">
-        <v>2476.569858826099</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036444</v>
@@ -5369,37 +5369,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036444</v>
@@ -5457,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600561</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1315.737983561872</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="C17" t="n">
-        <v>1315.737983561872</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="D17" t="n">
-        <v>1315.737983561872</v>
+        <v>1161.958294416975</v>
       </c>
       <c r="E17" t="n">
-        <v>929.9497309636276</v>
+        <v>776.1700418187309</v>
       </c>
       <c r="F17" t="n">
-        <v>518.9638261740201</v>
+        <v>776.1700418187309</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036444</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862885</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2465.942913862885</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V17" t="n">
-        <v>2465.942913862885</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W17" t="n">
-        <v>2465.942913862885</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X17" t="n">
-        <v>2092.477155601805</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y17" t="n">
-        <v>1702.337823625994</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5703,10 +5703,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
         <v>343.360151857325</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.175505447094</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C20" t="n">
-        <v>825.2129885066827</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D20" t="n">
-        <v>466.9472898999322</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E20" t="n">
-        <v>81.15903730168793</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>81.15903730168793</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G20" t="n">
-        <v>81.15903730168793</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036444</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2295.901071558009</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511216</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2407.97548067279</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>2243.755667775682</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W22" t="n">
-        <v>2243.755667775682</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>2243.755667775682</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2092.018078894093</v>
+        <v>1353.372297404497</v>
       </c>
       <c r="C23" t="n">
-        <v>2092.018078894093</v>
+        <v>1353.372297404497</v>
       </c>
       <c r="D23" t="n">
-        <v>1733.752380287342</v>
+        <v>995.106598797747</v>
       </c>
       <c r="E23" t="n">
-        <v>1347.964127689098</v>
+        <v>609.3183461995027</v>
       </c>
       <c r="F23" t="n">
-        <v>936.9782228994906</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="G23" t="n">
-        <v>519.5937762188908</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H23" t="n">
         <v>198.3324414098951</v>
       </c>
       <c r="I23" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J23" t="n">
         <v>231.164194982141</v>
@@ -5998,7 +5998,7 @@
         <v>1104.574328908086</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375319</v>
       </c>
       <c r="N23" t="n">
         <v>2260.663407417572</v>
@@ -6010,31 +6010,31 @@
         <v>3146.337816775585</v>
       </c>
       <c r="Q23" t="n">
-        <v>3360.114829815678</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R23" t="n">
-        <v>3341.479452221466</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S23" t="n">
-        <v>3341.479452221466</v>
+        <v>3187.408770319196</v>
       </c>
       <c r="T23" t="n">
-        <v>3125.380939814891</v>
+        <v>3187.408770319196</v>
       </c>
       <c r="U23" t="n">
-        <v>2871.665503366679</v>
+        <v>3187.408770319196</v>
       </c>
       <c r="V23" t="n">
-        <v>2871.665503366679</v>
+        <v>2856.345882975625</v>
       </c>
       <c r="W23" t="n">
-        <v>2518.896848096565</v>
+        <v>2503.577227705511</v>
       </c>
       <c r="X23" t="n">
-        <v>2145.431089835485</v>
+        <v>2130.111469444431</v>
       </c>
       <c r="Y23" t="n">
-        <v>2092.018078894093</v>
+        <v>1739.972137468619</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I24" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J24" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K24" t="n">
-        <v>371.509395606768</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L24" t="n">
         <v>842.0922403416544</v>
@@ -6080,13 +6080,13 @@
         <v>1443.219445828731</v>
       </c>
       <c r="N24" t="n">
-        <v>2075.963713122683</v>
+        <v>1942.544353892548</v>
       </c>
       <c r="O24" t="n">
-        <v>2588.297023317</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P24" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q24" t="n">
         <v>2670.157851783212</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.5202909796414</v>
+        <v>552.1209543791007</v>
       </c>
       <c r="C25" t="n">
-        <v>184.5202909796414</v>
+        <v>383.1847714511938</v>
       </c>
       <c r="D25" t="n">
-        <v>184.5202909796414</v>
+        <v>382.8321627675645</v>
       </c>
       <c r="E25" t="n">
-        <v>184.5202909796414</v>
+        <v>382.8321627675645</v>
       </c>
       <c r="F25" t="n">
-        <v>184.5202909796414</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="G25" t="n">
-        <v>184.5202909796414</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="H25" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="I25" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J25" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K25" t="n">
-        <v>153.0971541490672</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L25" t="n">
-        <v>318.5394338551383</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M25" t="n">
-        <v>503.3642441804036</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N25" t="n">
         <v>689.2289500417505</v>
@@ -6177,22 +6177,22 @@
         <v>954.5619983528705</v>
       </c>
       <c r="T25" t="n">
-        <v>728.364214171597</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="U25" t="n">
-        <v>439.2047791855283</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="V25" t="n">
-        <v>184.5202909796414</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="W25" t="n">
-        <v>184.5202909796414</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="X25" t="n">
-        <v>184.5202909796414</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.5202909796414</v>
+        <v>733.7694192093404</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1975.176009513877</v>
+        <v>1651.392913191983</v>
       </c>
       <c r="C26" t="n">
-        <v>1606.213492573465</v>
+        <v>1282.430396251572</v>
       </c>
       <c r="D26" t="n">
-        <v>1281.360900664765</v>
+        <v>924.1646976448212</v>
       </c>
       <c r="E26" t="n">
-        <v>895.572648066521</v>
+        <v>538.3764450465769</v>
       </c>
       <c r="F26" t="n">
         <v>484.5867432769134</v>
       </c>
       <c r="G26" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H26" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I26" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K26" t="n">
-        <v>597.6453821726755</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L26" t="n">
         <v>1104.574328908086</v>
@@ -6238,10 +6238,10 @@
         <v>1685.237002375318</v>
       </c>
       <c r="N26" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O26" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P26" t="n">
         <v>3146.337816775584</v>
@@ -6250,28 +6250,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R26" t="n">
-        <v>3341.479452221466</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S26" t="n">
-        <v>3341.479452221466</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T26" t="n">
-        <v>3125.38093981489</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="U26" t="n">
-        <v>3125.38093981489</v>
+        <v>2708.690214066748</v>
       </c>
       <c r="V26" t="n">
-        <v>3125.38093981489</v>
+        <v>2377.627326723177</v>
       </c>
       <c r="W26" t="n">
-        <v>3125.38093981489</v>
+        <v>2024.858671453063</v>
       </c>
       <c r="X26" t="n">
-        <v>2751.91518155381</v>
+        <v>1651.392913191983</v>
       </c>
       <c r="Y26" t="n">
-        <v>2361.775849577999</v>
+        <v>1651.392913191983</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I27" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J27" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K27" t="n">
-        <v>109.6888109643152</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L27" t="n">
-        <v>526.725699886047</v>
+        <v>842.0922403416544</v>
       </c>
       <c r="M27" t="n">
-        <v>1127.852905373124</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N27" t="n">
-        <v>1760.597172667076</v>
+        <v>1942.544353892548</v>
       </c>
       <c r="O27" t="n">
-        <v>2273.018882363462</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P27" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2251114077961</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2251114077961</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2251114077961</v>
+        <v>362.005337676617</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2251114077961</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2251114077961</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G28" t="n">
-        <v>94.48519273445555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H28" t="n">
-        <v>94.48519273445555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I28" t="n">
-        <v>94.48519273445555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J28" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K28" t="n">
-        <v>153.0971541490672</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L28" t="n">
         <v>318.5394338551382</v>
       </c>
       <c r="M28" t="n">
-        <v>503.3642441804036</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N28" t="n">
         <v>689.2289500417505</v>
@@ -6405,31 +6405,31 @@
         <v>954.5619983528705</v>
       </c>
       <c r="Q28" t="n">
-        <v>946.9066183890435</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="R28" t="n">
-        <v>810.4451810583699</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="S28" t="n">
-        <v>600.6857851931053</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="T28" t="n">
-        <v>374.4880010118318</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="U28" t="n">
-        <v>263.2251114077961</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="V28" t="n">
-        <v>263.2251114077961</v>
+        <v>740.11152798697</v>
       </c>
       <c r="W28" t="n">
-        <v>263.2251114077961</v>
+        <v>740.11152798697</v>
       </c>
       <c r="X28" t="n">
-        <v>263.2251114077961</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="Y28" t="n">
-        <v>263.2251114077961</v>
+        <v>512.1219770889527</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1650.323417605177</v>
+        <v>1424.228870516101</v>
       </c>
       <c r="C29" t="n">
-        <v>1281.360900664765</v>
+        <v>1424.228870516101</v>
       </c>
       <c r="D29" t="n">
-        <v>1281.360900664765</v>
+        <v>1065.963171909351</v>
       </c>
       <c r="E29" t="n">
         <v>895.572648066521</v>
@@ -6454,19 +6454,19 @@
         <v>484.5867432769134</v>
       </c>
       <c r="G29" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H29" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I29" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K29" t="n">
-        <v>597.6453821726756</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L29" t="n">
         <v>1104.574328908086</v>
@@ -6475,10 +6475,10 @@
         <v>1685.237002375318</v>
       </c>
       <c r="N29" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O29" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P29" t="n">
         <v>3146.337816775584</v>
@@ -6487,28 +6487,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R29" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S29" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="T29" t="n">
-        <v>3360.114829815677</v>
+        <v>3125.380939814889</v>
       </c>
       <c r="U29" t="n">
-        <v>3360.114829815677</v>
+        <v>2871.665503366678</v>
       </c>
       <c r="V29" t="n">
-        <v>3153.297003176304</v>
+        <v>2540.602616023107</v>
       </c>
       <c r="W29" t="n">
-        <v>2800.52834790619</v>
+        <v>2187.833960752993</v>
       </c>
       <c r="X29" t="n">
-        <v>2427.06258964511</v>
+        <v>1814.368202491913</v>
       </c>
       <c r="Y29" t="n">
-        <v>2036.923257669299</v>
+        <v>1424.228870516101</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I30" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J30" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K30" t="n">
-        <v>109.6888109643152</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L30" t="n">
-        <v>526.725699886047</v>
+        <v>708.672881111519</v>
       </c>
       <c r="M30" t="n">
-        <v>1127.852905373124</v>
+        <v>1309.800086598596</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.597172667076</v>
+        <v>1942.544353892548</v>
       </c>
       <c r="O30" t="n">
-        <v>2273.018882363462</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P30" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q30" t="n">
         <v>2670.157851783212</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>318.72619844334</v>
+        <v>324.1314034810833</v>
       </c>
       <c r="C31" t="n">
-        <v>318.72619844334</v>
+        <v>217.3189360086492</v>
       </c>
       <c r="D31" t="n">
-        <v>318.72619844334</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E31" t="n">
-        <v>318.72619844334</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F31" t="n">
-        <v>235.9422152696541</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G31" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H31" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I31" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J31" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K31" t="n">
-        <v>153.0971541490672</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L31" t="n">
         <v>318.5394338551382</v>
       </c>
       <c r="M31" t="n">
-        <v>503.3642441804036</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N31" t="n">
         <v>689.2289500417505</v>
@@ -6651,22 +6651,22 @@
         <v>954.5619983528705</v>
       </c>
       <c r="T31" t="n">
-        <v>728.364214171597</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="U31" t="n">
-        <v>728.364214171597</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="V31" t="n">
-        <v>728.364214171597</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="W31" t="n">
-        <v>728.364214171597</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="X31" t="n">
-        <v>500.3746632735797</v>
+        <v>726.5724474548532</v>
       </c>
       <c r="Y31" t="n">
-        <v>500.3746632735797</v>
+        <v>505.7798683113231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1716.92664462951</v>
+        <v>1860.211634576881</v>
       </c>
       <c r="C32" t="n">
-        <v>1347.964127689098</v>
+        <v>1491.249117636469</v>
       </c>
       <c r="D32" t="n">
-        <v>1347.964127689098</v>
+        <v>1491.249117636469</v>
       </c>
       <c r="E32" t="n">
-        <v>1347.964127689098</v>
+        <v>1105.460865038225</v>
       </c>
       <c r="F32" t="n">
-        <v>936.9782228994906</v>
+        <v>694.4749602486172</v>
       </c>
       <c r="G32" t="n">
-        <v>519.5937762188908</v>
+        <v>277.0905135680174</v>
       </c>
       <c r="H32" t="n">
         <v>198.3324414098951</v>
       </c>
       <c r="I32" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821406</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726753</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L32" t="n">
         <v>1104.574328908086</v>
@@ -6724,28 +6724,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R32" t="n">
-        <v>3341.479452221466</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S32" t="n">
-        <v>3178.504162921536</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="T32" t="n">
-        <v>3164.363277480086</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="U32" t="n">
-        <v>3164.363277480086</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="V32" t="n">
-        <v>2833.300390136515</v>
+        <v>3010.416564877894</v>
       </c>
       <c r="W32" t="n">
-        <v>2480.531734866401</v>
+        <v>3010.416564877894</v>
       </c>
       <c r="X32" t="n">
-        <v>2107.065976605321</v>
+        <v>2636.950806616814</v>
       </c>
       <c r="Y32" t="n">
-        <v>1716.92664462951</v>
+        <v>2246.811474641002</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I33" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J33" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K33" t="n">
-        <v>109.6888109643152</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L33" t="n">
-        <v>526.725699886047</v>
+        <v>793.2981356276748</v>
       </c>
       <c r="M33" t="n">
-        <v>1127.852905373124</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.597172667076</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O33" t="n">
-        <v>2273.018882363462</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P33" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q33" t="n">
         <v>2670.157851783212</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>563.4160728163101</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="C34" t="n">
-        <v>563.4160728163101</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="D34" t="n">
-        <v>563.4160728163101</v>
+        <v>232.0267415633231</v>
       </c>
       <c r="E34" t="n">
-        <v>538.2699517588172</v>
+        <v>84.11364798092998</v>
       </c>
       <c r="F34" t="n">
-        <v>391.3800042609069</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G34" t="n">
-        <v>222.6400855875664</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H34" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I34" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J34" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K34" t="n">
-        <v>153.0971541490672</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L34" t="n">
         <v>318.5394338551382</v>
       </c>
       <c r="M34" t="n">
-        <v>503.3642441804036</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N34" t="n">
         <v>689.2289500417505</v>
@@ -6885,25 +6885,25 @@
         <v>818.100561022197</v>
       </c>
       <c r="S34" t="n">
-        <v>818.100561022197</v>
+        <v>608.3411651569323</v>
       </c>
       <c r="T34" t="n">
-        <v>818.100561022197</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="U34" t="n">
-        <v>818.100561022197</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="V34" t="n">
-        <v>563.4160728163101</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="W34" t="n">
-        <v>563.4160728163101</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="X34" t="n">
-        <v>563.4160728163101</v>
+        <v>382.1433809756588</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.4160728163101</v>
+        <v>382.1433809756588</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2420.400368475814</v>
+        <v>1526.677751742079</v>
       </c>
       <c r="C35" t="n">
-        <v>2051.437851535402</v>
+        <v>1157.715234801667</v>
       </c>
       <c r="D35" t="n">
-        <v>1693.172152928652</v>
+        <v>799.4495361949167</v>
       </c>
       <c r="E35" t="n">
-        <v>1307.383900330408</v>
+        <v>799.4495361949167</v>
       </c>
       <c r="F35" t="n">
-        <v>896.3979955408001</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="G35" t="n">
-        <v>479.0135488602003</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="H35" t="n">
-        <v>157.7522140512047</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="I35" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J35" t="n">
         <v>231.164194982141</v>
@@ -6958,31 +6958,31 @@
         <v>3146.337816775585</v>
       </c>
       <c r="Q35" t="n">
-        <v>3360.114829815678</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R35" t="n">
-        <v>3360.114829815678</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S35" t="n">
-        <v>3197.139540515748</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T35" t="n">
-        <v>3197.139540515748</v>
+        <v>2962.40565051496</v>
       </c>
       <c r="U35" t="n">
-        <v>3197.139540515748</v>
+        <v>2962.40565051496</v>
       </c>
       <c r="V35" t="n">
-        <v>3197.139540515748</v>
+        <v>2631.342763171389</v>
       </c>
       <c r="W35" t="n">
-        <v>3197.139540515748</v>
+        <v>2278.574107901275</v>
       </c>
       <c r="X35" t="n">
-        <v>3197.139540515748</v>
+        <v>1905.108349640195</v>
       </c>
       <c r="Y35" t="n">
-        <v>2807.000208539936</v>
+        <v>1905.108349640195</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I36" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J36" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K36" t="n">
-        <v>109.6888109643152</v>
+        <v>109.6888109643151</v>
       </c>
       <c r="L36" t="n">
-        <v>526.725699886047</v>
+        <v>580.2716556992016</v>
       </c>
       <c r="M36" t="n">
-        <v>1127.852905373124</v>
+        <v>1181.398861186279</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.597172667076</v>
+        <v>1814.14312848023</v>
       </c>
       <c r="O36" t="n">
-        <v>2273.018882363462</v>
+        <v>2326.564838176616</v>
       </c>
       <c r="P36" t="n">
         <v>2667.279412613341</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.20229659631356</v>
+        <v>636.4520961919573</v>
       </c>
       <c r="C37" t="n">
-        <v>67.20229659631356</v>
+        <v>467.5159132640504</v>
       </c>
       <c r="D37" t="n">
-        <v>67.20229659631356</v>
+        <v>317.3992738517146</v>
       </c>
       <c r="E37" t="n">
-        <v>67.20229659631356</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="F37" t="n">
-        <v>67.20229659631356</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="G37" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="H37" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="I37" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J37" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K37" t="n">
-        <v>153.0971541490672</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L37" t="n">
-        <v>318.5394338551383</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M37" t="n">
-        <v>503.3642441804036</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N37" t="n">
         <v>689.2289500417505</v>
@@ -7119,28 +7119,28 @@
         <v>954.5619983528705</v>
       </c>
       <c r="R37" t="n">
-        <v>954.5619983528705</v>
+        <v>818.100561022197</v>
       </c>
       <c r="S37" t="n">
-        <v>837.2440039695427</v>
+        <v>818.100561022197</v>
       </c>
       <c r="T37" t="n">
-        <v>611.0462197882692</v>
+        <v>818.100561022197</v>
       </c>
       <c r="U37" t="n">
-        <v>321.8867848022005</v>
+        <v>818.100561022197</v>
       </c>
       <c r="V37" t="n">
-        <v>67.20229659631356</v>
+        <v>818.100561022197</v>
       </c>
       <c r="W37" t="n">
-        <v>67.20229659631356</v>
+        <v>818.100561022197</v>
       </c>
       <c r="X37" t="n">
-        <v>67.20229659631356</v>
+        <v>818.100561022197</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.20229659631356</v>
+        <v>818.100561022197</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1591.204669531327</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="C38" t="n">
-        <v>1222.242152590916</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D38" t="n">
-        <v>863.9764539841653</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E38" t="n">
-        <v>478.1882013859211</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F38" t="n">
-        <v>67.20229659631354</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G38" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H38" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I38" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K38" t="n">
-        <v>597.6453821726755</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L38" t="n">
         <v>1104.574328908086</v>
@@ -7186,10 +7186,10 @@
         <v>1685.237002375318</v>
       </c>
       <c r="N38" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O38" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P38" t="n">
         <v>3146.337816775584</v>
@@ -7198,28 +7198,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R38" t="n">
-        <v>3341.479452221466</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S38" t="n">
-        <v>3341.479452221466</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T38" t="n">
-        <v>3341.479452221466</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="U38" t="n">
-        <v>3341.479452221466</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="V38" t="n">
-        <v>3094.178255102455</v>
+        <v>3142.600184842643</v>
       </c>
       <c r="W38" t="n">
-        <v>2741.409599832341</v>
+        <v>2789.831529572529</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.943841571261</v>
+        <v>2416.365771311449</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.804509595449</v>
+        <v>2026.226439335637</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I39" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J39" t="n">
-        <v>67.20229659631354</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K39" t="n">
-        <v>109.6888109643152</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L39" t="n">
-        <v>580.2716556992016</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M39" t="n">
-        <v>1127.852905373124</v>
+        <v>1547.180649572873</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.597172667076</v>
+        <v>1942.544353892548</v>
       </c>
       <c r="O39" t="n">
-        <v>2273.018882363462</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P39" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.20229659631354</v>
+        <v>217.3189360086492</v>
       </c>
       <c r="C40" t="n">
-        <v>67.20229659631354</v>
+        <v>217.3189360086492</v>
       </c>
       <c r="D40" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E40" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F40" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G40" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H40" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I40" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J40" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K40" t="n">
-        <v>153.0971541490672</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L40" t="n">
         <v>318.5394338551382</v>
       </c>
       <c r="M40" t="n">
-        <v>503.3642441804036</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N40" t="n">
         <v>689.2289500417505</v>
@@ -7362,22 +7362,22 @@
         <v>954.5619983528705</v>
       </c>
       <c r="T40" t="n">
-        <v>728.364214171597</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="U40" t="n">
-        <v>439.2047791855283</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="V40" t="n">
-        <v>184.5202909796414</v>
+        <v>410.718075160915</v>
       </c>
       <c r="W40" t="n">
-        <v>67.20229659631354</v>
+        <v>410.718075160915</v>
       </c>
       <c r="X40" t="n">
-        <v>67.20229659631354</v>
+        <v>217.3189360086492</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.20229659631354</v>
+        <v>217.3189360086492</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1591.204669531327</v>
+        <v>2246.811474641003</v>
       </c>
       <c r="C41" t="n">
-        <v>1222.242152590916</v>
+        <v>1877.848957700591</v>
       </c>
       <c r="D41" t="n">
-        <v>863.9764539841653</v>
+        <v>1519.583259093841</v>
       </c>
       <c r="E41" t="n">
-        <v>478.1882013859211</v>
+        <v>1133.795006495596</v>
       </c>
       <c r="F41" t="n">
-        <v>67.20229659631354</v>
+        <v>805.848078085909</v>
       </c>
       <c r="G41" t="n">
-        <v>67.20229659631354</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="H41" t="n">
         <v>67.20229659631354</v>
@@ -7411,10 +7411,10 @@
         <v>67.20229659631354</v>
       </c>
       <c r="J41" t="n">
-        <v>231.1641949821403</v>
+        <v>231.164194982141</v>
       </c>
       <c r="K41" t="n">
-        <v>597.6453821726753</v>
+        <v>597.6453821726759</v>
       </c>
       <c r="L41" t="n">
         <v>1104.574328908086</v>
@@ -7429,34 +7429,34 @@
         <v>2758.834606696549</v>
       </c>
       <c r="P41" t="n">
-        <v>3146.337816775584</v>
+        <v>3146.337816775585</v>
       </c>
       <c r="Q41" t="n">
         <v>3360.114829815677</v>
       </c>
       <c r="R41" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S41" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="T41" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="U41" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="V41" t="n">
-        <v>3094.178255102455</v>
+        <v>3010.416564877894</v>
       </c>
       <c r="W41" t="n">
-        <v>2741.409599832341</v>
+        <v>3010.416564877894</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.943841571261</v>
+        <v>2636.950806616815</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.804509595449</v>
+        <v>2246.811474641003</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>67.20229659631354</v>
       </c>
       <c r="J42" t="n">
-        <v>171.1635003404556</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="K42" t="n">
-        <v>213.6500147084571</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L42" t="n">
-        <v>684.2328594433436</v>
+        <v>842.0922403416544</v>
       </c>
       <c r="M42" t="n">
-        <v>1285.360064930421</v>
+        <v>982.1714327162314</v>
       </c>
       <c r="N42" t="n">
-        <v>1918.104332224373</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O42" t="n">
-        <v>2430.526041920759</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P42" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.27906425812733</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="C43" t="n">
-        <v>83.27906425812733</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="D43" t="n">
-        <v>83.27906425812733</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="E43" t="n">
-        <v>83.27906425812733</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="F43" t="n">
-        <v>83.27906425812733</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="G43" t="n">
-        <v>83.27906425812733</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="H43" t="n">
-        <v>83.27906425812733</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="I43" t="n">
-        <v>83.27906425812733</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="J43" t="n">
         <v>67.20229659631354</v>
       </c>
       <c r="K43" t="n">
-        <v>153.0971541490672</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L43" t="n">
         <v>318.5394338551382</v>
       </c>
       <c r="M43" t="n">
-        <v>503.3642441804036</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N43" t="n">
         <v>689.2289500417505</v>
@@ -7590,31 +7590,31 @@
         <v>954.5619983528705</v>
       </c>
       <c r="Q43" t="n">
-        <v>946.9066183890435</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="R43" t="n">
-        <v>810.4451810583699</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="S43" t="n">
-        <v>600.6857851931053</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="T43" t="n">
-        <v>600.6857851931053</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="U43" t="n">
-        <v>600.6857851931053</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="V43" t="n">
-        <v>600.6857851931053</v>
+        <v>512.057255624527</v>
       </c>
       <c r="W43" t="n">
-        <v>311.2686151561447</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="X43" t="n">
-        <v>83.27906425812733</v>
+        <v>222.6400855875664</v>
       </c>
       <c r="Y43" t="n">
-        <v>83.27906425812733</v>
+        <v>222.6400855875664</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1781.453562418758</v>
+        <v>1622.800863613683</v>
       </c>
       <c r="C44" t="n">
-        <v>1412.491045478347</v>
+        <v>1253.838346673271</v>
       </c>
       <c r="D44" t="n">
-        <v>1412.491045478347</v>
+        <v>895.572648066521</v>
       </c>
       <c r="E44" t="n">
-        <v>1026.702792880102</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F44" t="n">
-        <v>615.7168880904949</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G44" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="H44" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="I44" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="J44" t="n">
-        <v>231.1641949821405</v>
+        <v>231.164194982141</v>
       </c>
       <c r="K44" t="n">
-        <v>597.6453821726756</v>
+        <v>597.6453821726757</v>
       </c>
       <c r="L44" t="n">
         <v>1104.574328908086</v>
@@ -7666,10 +7666,10 @@
         <v>2758.834606696549</v>
       </c>
       <c r="P44" t="n">
-        <v>3146.337816775584</v>
+        <v>3146.337816775585</v>
       </c>
       <c r="Q44" t="n">
-        <v>3360.114829815677</v>
+        <v>3360.114829815678</v>
       </c>
       <c r="R44" t="n">
         <v>3341.479452221466</v>
@@ -7681,19 +7681,19 @@
         <v>3341.479452221466</v>
       </c>
       <c r="U44" t="n">
-        <v>3262.721380063343</v>
+        <v>3125.774449184811</v>
       </c>
       <c r="V44" t="n">
-        <v>2931.658492719772</v>
+        <v>3125.774449184811</v>
       </c>
       <c r="W44" t="n">
-        <v>2931.658492719772</v>
+        <v>2773.005793914696</v>
       </c>
       <c r="X44" t="n">
-        <v>2558.192734458692</v>
+        <v>2399.540035653617</v>
       </c>
       <c r="Y44" t="n">
-        <v>2168.05340248288</v>
+        <v>2009.400703677805</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I45" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="J45" t="n">
-        <v>171.1635003404556</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="K45" t="n">
-        <v>475.47059935091</v>
+        <v>322.715290892788</v>
       </c>
       <c r="L45" t="n">
-        <v>946.0534440857964</v>
+        <v>793.2981356276745</v>
       </c>
       <c r="M45" t="n">
-        <v>1547.180649572873</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N45" t="n">
-        <v>1705.375966266707</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O45" t="n">
         <v>2065.042367504971</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.20229659631354</v>
+        <v>362.005337676617</v>
       </c>
       <c r="C46" t="n">
-        <v>67.20229659631354</v>
+        <v>362.005337676617</v>
       </c>
       <c r="D46" t="n">
-        <v>67.20229659631354</v>
+        <v>362.005337676617</v>
       </c>
       <c r="E46" t="n">
-        <v>67.20229659631354</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F46" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="G46" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="H46" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="I46" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="J46" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631356</v>
       </c>
       <c r="K46" t="n">
         <v>153.0971541490672</v>
       </c>
       <c r="L46" t="n">
-        <v>318.5394338551382</v>
+        <v>318.5394338551383</v>
       </c>
       <c r="M46" t="n">
         <v>503.3642441804036</v>
@@ -7833,25 +7833,25 @@
         <v>954.5619983528705</v>
       </c>
       <c r="S46" t="n">
-        <v>954.5619983528705</v>
+        <v>744.8026024876059</v>
       </c>
       <c r="T46" t="n">
-        <v>954.5619983528705</v>
+        <v>651.4225077135777</v>
       </c>
       <c r="U46" t="n">
-        <v>665.4025633668018</v>
+        <v>651.4225077135777</v>
       </c>
       <c r="V46" t="n">
-        <v>665.4025633668018</v>
+        <v>651.4225077135777</v>
       </c>
       <c r="W46" t="n">
-        <v>665.4025633668018</v>
+        <v>362.005337676617</v>
       </c>
       <c r="X46" t="n">
-        <v>469.6433405700834</v>
+        <v>362.005337676617</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.8507614265532</v>
+        <v>362.005337676617</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>21.07971842713408</v>
+        <v>21.0797184271341</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>344.5753448181644</v>
       </c>
       <c r="O24" t="n">
-        <v>393.7730268503967</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>21.07971842713408</v>
+        <v>21.0797184271341</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>316.7535212497676</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>344.5753448181644</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>21.07971842713408</v>
+        <v>21.0797184271341</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>316.7535212497676</v>
+        <v>236.0733157780699</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>21.07971842713408</v>
+        <v>21.0797184271341</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>316.7535212497676</v>
+        <v>321.5533708448939</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>21.07971842713408</v>
+        <v>21.0797184271341</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>316.7535212497676</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>264.3759445862462</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>21.07971842713408</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>411.6182396963084</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>239.5640279048896</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>21.0797184271341</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>416.4180892914346</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>159.3646276729709</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713408</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>215.178262554013</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>239.5640279048893</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>29.15788302489324</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>49.11500274754036</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>118.3328055020464</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
@@ -23466,7 +23466,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>15.4236932637327</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23475,7 +23475,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>249.2259482512289</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>52.55328306226816</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74592769735776</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23712,13 +23712,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>105.3448503555371</v>
+        <v>22.70215338676945</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23943,13 +23943,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>296.9788778378469</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>82.88274362646172</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>89.56002855569187</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>161.3455364069306</v>
+        <v>8.815561323683994</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>333.3590578240753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.2663904214193</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>37.73859666184578</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I25" t="n">
         <v>127.2284271446648</v>
       </c>
       <c r="J25" t="n">
-        <v>27.01006717676059</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.578826164188754</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R25" t="n">
         <v>135.0968229573668</v>
@@ -24417,13 +24417,13 @@
         <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33.07897563107008</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>353.6242409897445</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H28" t="n">
         <v>153.8834111013403</v>
@@ -24624,7 +24624,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>176.1175799282127</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>39.8316776615865</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>213.2437514678602</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.44902381826969</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T29" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>123.0026100971557</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>61.50247830091809</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>63.46490468098222</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H31" t="n">
         <v>153.8834111013403</v>
@@ -24861,7 +24861,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J31" t="n">
-        <v>27.01006717676059</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.578826164188754</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R31" t="n">
         <v>135.0968229573668</v>
@@ -24891,7 +24891,7 @@
         <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
         <v>286.2678406362081</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>240.0782300243645</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
-        <v>199.9380506954749</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
         <v>251.1782820837292</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,25 +25080,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>121.5393027996512</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>128.678810152161</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I34" t="n">
         <v>127.2284271446648</v>
       </c>
       <c r="J34" t="n">
-        <v>27.01006717676059</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.578826164188754</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>8.087549744345949</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>40.17442508510348</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.44902381826969</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>65.79147465032923</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.8834111013403</v>
@@ -25335,7 +25335,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J37" t="n">
-        <v>27.01006717676059</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.578826164188754</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R37" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>91.51698746711749</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>318.0487214609057</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>213.9375272825098</v>
@@ -25450,7 +25450,7 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>82.92407332231468</v>
+        <v>292.2073201720322</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25572,7 +25572,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
-        <v>27.01006717676059</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.578826164188754</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R40" t="n">
         <v>135.0968229573668</v>
@@ -25602,7 +25602,7 @@
         <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>170.3781838970964</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>34.24450762829412</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>82.2085866161209</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>129.8188433654457</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826969</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>161.3455364069306</v>
@@ -25687,10 +25687,10 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
-        <v>64.47504950404522</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25803,13 +25803,13 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>127.2284271446648</v>
       </c>
       <c r="J43" t="n">
-        <v>11.09406719156494</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>100.3257886589759</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
-        <v>173.2077906471874</v>
+        <v>37.63032907744036</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.0525194866071</v>
@@ -26073,25 +26073,25 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S46" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.9358063394608</v>
+        <v>131.4895125131729</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>31.90802482028587</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>706082.3621429359</v>
+        <v>706082.362142936</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>706082.3621429359</v>
+        <v>706082.3621429357</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779955.0885461688</v>
+        <v>779955.0885461689</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779955.088546169</v>
+        <v>779955.0885461689</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779955.0885461688</v>
+        <v>779955.0885461689</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779955.0885461691</v>
+        <v>779955.0885461688</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
+        <v>332525.5015181212</v>
+      </c>
+      <c r="F2" t="n">
         <v>332525.5015181213</v>
       </c>
-      <c r="F2" t="n">
-        <v>332525.501518121</v>
-      </c>
       <c r="G2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181215</v>
       </c>
       <c r="H2" t="n">
         <v>332525.5015181213</v>
@@ -26343,7 +26343,7 @@
         <v>369476.1749156272</v>
       </c>
       <c r="L2" t="n">
-        <v>369476.1749156271</v>
+        <v>369476.1749156272</v>
       </c>
       <c r="M2" t="n">
         <v>369476.1749156272</v>
@@ -26352,10 +26352,10 @@
         <v>369476.1749156271</v>
       </c>
       <c r="O2" t="n">
-        <v>369476.1749156273</v>
+        <v>369476.1749156272</v>
       </c>
       <c r="P2" t="n">
-        <v>369476.1749156273</v>
+        <v>369476.1749156272</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151472.5856033443</v>
+        <v>151472.5856033442</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26490,25 +26490,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>62418.87211854679</v>
+        <v>62418.87211854678</v>
       </c>
       <c r="J5" t="n">
-        <v>62418.87211854679</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="K5" t="n">
-        <v>62418.87211854679</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="L5" t="n">
-        <v>62418.87211854679</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="M5" t="n">
-        <v>62418.87211854679</v>
+        <v>62418.87211854678</v>
       </c>
       <c r="N5" t="n">
-        <v>62418.87211854679</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="O5" t="n">
-        <v>62418.87211854679</v>
+        <v>62418.87211854678</v>
       </c>
       <c r="P5" t="n">
         <v>62418.87211854679</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925152</v>
+        <v>-366360.8073925156</v>
       </c>
       <c r="C6" t="n">
+        <v>223607.071822029</v>
+      </c>
+      <c r="D6" t="n">
         <v>223607.0718220291</v>
       </c>
-      <c r="D6" t="n">
-        <v>223607.071822029</v>
-      </c>
       <c r="E6" t="n">
-        <v>256207.1863497468</v>
+        <v>250138.7726039274</v>
       </c>
       <c r="F6" t="n">
-        <v>256207.1863497465</v>
+        <v>250138.7726039276</v>
       </c>
       <c r="G6" t="n">
-        <v>256207.1863497467</v>
+        <v>250138.7726039277</v>
       </c>
       <c r="H6" t="n">
-        <v>256207.1863497468</v>
+        <v>250138.7726039276</v>
       </c>
       <c r="I6" t="n">
-        <v>130049.5269877621</v>
+        <v>125587.6642592258</v>
       </c>
       <c r="J6" t="n">
-        <v>105098.8933985135</v>
+        <v>100637.0306699771</v>
       </c>
       <c r="K6" t="n">
-        <v>281522.1125911064</v>
+        <v>277060.24986257</v>
       </c>
       <c r="L6" t="n">
-        <v>281522.1125911062</v>
+        <v>277060.2498625701</v>
       </c>
       <c r="M6" t="n">
-        <v>281522.1125911063</v>
+        <v>277060.24986257</v>
       </c>
       <c r="N6" t="n">
-        <v>281522.1125911063</v>
+        <v>277060.24986257</v>
       </c>
       <c r="O6" t="n">
-        <v>281522.1125911064</v>
+        <v>277060.2498625701</v>
       </c>
       <c r="P6" t="n">
-        <v>281522.1125911064</v>
+        <v>277060.2498625701</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26758,25 +26758,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>520.4186562086466</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="J3" t="n">
-        <v>520.4186562086466</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4186562086466</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="L3" t="n">
-        <v>520.4186562086466</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="M3" t="n">
-        <v>520.4186562086466</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="N3" t="n">
-        <v>520.4186562086466</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4186562086466</v>
+        <v>520.4186562086464</v>
       </c>
       <c r="P3" t="n">
         <v>520.4186562086466</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545555</v>
@@ -26810,28 +26810,28 @@
         <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>840.0287074539194</v>
+        <v>840.0287074539193</v>
       </c>
       <c r="J4" t="n">
+        <v>840.0287074539192</v>
+      </c>
+      <c r="K4" t="n">
+        <v>840.0287074539192</v>
+      </c>
+      <c r="L4" t="n">
+        <v>840.0287074539192</v>
+      </c>
+      <c r="M4" t="n">
         <v>840.0287074539193</v>
       </c>
-      <c r="K4" t="n">
-        <v>840.0287074539193</v>
-      </c>
-      <c r="L4" t="n">
-        <v>840.0287074539193</v>
-      </c>
-      <c r="M4" t="n">
-        <v>840.0287074539194</v>
-      </c>
       <c r="N4" t="n">
-        <v>840.0287074539193</v>
+        <v>840.0287074539192</v>
       </c>
       <c r="O4" t="n">
         <v>840.0287074539193</v>
       </c>
       <c r="P4" t="n">
-        <v>840.0287074539193</v>
+        <v>840.0287074539194</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.67499199156</v>
+        <v>142.6749919915599</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.7414346993639</v>
+        <v>165.7414346993638</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>181.3181710672182</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>95.278929311458</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>248.25943146949</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>249.5424056740545</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>221.2334947817056</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>191.8289783098299</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.092135301341291</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H23" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I23" t="n">
-        <v>80.65704620496021</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J23" t="n">
-        <v>177.5673685322156</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K23" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L23" t="n">
-        <v>330.1546415664161</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M23" t="n">
         <v>367.3606527316442</v>
@@ -32727,7 +32727,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P23" t="n">
-        <v>300.8516715020046</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q23" t="n">
         <v>225.9270760227195</v>
@@ -32736,13 +32736,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S23" t="n">
-        <v>47.67453317931472</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T23" t="n">
-        <v>9.158322281621507</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1673708241073033</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32794,34 +32794,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L24" t="n">
-        <v>243.0502412793307</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M24" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N24" t="n">
-        <v>291.1349612690239</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O24" t="n">
-        <v>266.3316117297212</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P24" t="n">
-        <v>213.7545986227553</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q24" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R24" t="n">
-        <v>69.5004386536755</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S24" t="n">
-        <v>20.79219819852469</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T24" t="n">
-        <v>4.511931557129679</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07364414946348775</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9384598718516576</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H25" t="n">
-        <v>8.34376140609929</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I25" t="n">
-        <v>28.2220477825935</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J25" t="n">
-        <v>66.34911293991219</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K25" t="n">
-        <v>109.0319742024017</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L25" t="n">
         <v>139.5233885842001</v>
@@ -32888,19 +32888,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.58321708750563</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R25" t="n">
-        <v>42.1965684198027</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S25" t="n">
-        <v>16.35479613036025</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T25" t="n">
-        <v>4.009783088820718</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05118872028281775</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.092135301341291</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H26" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I26" t="n">
-        <v>80.65704620496021</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J26" t="n">
-        <v>177.5673685322156</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K26" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L26" t="n">
-        <v>330.1546415664161</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M26" t="n">
         <v>367.3606527316442</v>
@@ -32964,7 +32964,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P26" t="n">
-        <v>300.8516715020046</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q26" t="n">
         <v>225.9270760227195</v>
@@ -32973,13 +32973,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S26" t="n">
-        <v>47.67453317931472</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T26" t="n">
-        <v>9.158322281621507</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1673708241073033</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33031,34 +33031,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L27" t="n">
-        <v>243.0502412793307</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M27" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N27" t="n">
-        <v>291.1349612690239</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O27" t="n">
-        <v>266.3316117297212</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P27" t="n">
-        <v>213.7545986227553</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q27" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R27" t="n">
-        <v>69.5004386536755</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S27" t="n">
-        <v>20.79219819852469</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T27" t="n">
-        <v>4.511931557129679</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07364414946348775</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9384598718516576</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H28" t="n">
-        <v>8.34376140609929</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I28" t="n">
-        <v>28.2220477825935</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J28" t="n">
-        <v>66.34911293991219</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K28" t="n">
-        <v>109.0319742024017</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L28" t="n">
         <v>139.5233885842001</v>
@@ -33125,19 +33125,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.58321708750563</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R28" t="n">
-        <v>42.1965684198027</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S28" t="n">
-        <v>16.35479613036025</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T28" t="n">
-        <v>4.009783088820718</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05118872028281775</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.092135301341291</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H29" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I29" t="n">
-        <v>80.65704620496021</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J29" t="n">
-        <v>177.5673685322156</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K29" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L29" t="n">
-        <v>330.1546415664161</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M29" t="n">
         <v>367.3606527316442</v>
@@ -33201,7 +33201,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P29" t="n">
-        <v>300.8516715020046</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q29" t="n">
         <v>225.9270760227195</v>
@@ -33210,13 +33210,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S29" t="n">
-        <v>47.67453317931472</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T29" t="n">
-        <v>9.158322281621507</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1673708241073033</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33268,34 +33268,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L30" t="n">
-        <v>243.0502412793307</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M30" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N30" t="n">
-        <v>291.1349612690239</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O30" t="n">
-        <v>266.3316117297212</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P30" t="n">
-        <v>213.7545986227553</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q30" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R30" t="n">
-        <v>69.5004386536755</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S30" t="n">
-        <v>20.79219819852469</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T30" t="n">
-        <v>4.511931557129679</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07364414946348775</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9384598718516576</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H31" t="n">
-        <v>8.34376140609929</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I31" t="n">
-        <v>28.2220477825935</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J31" t="n">
-        <v>66.34911293991219</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K31" t="n">
-        <v>109.0319742024017</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L31" t="n">
         <v>139.5233885842001</v>
@@ -33362,19 +33362,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.58321708750563</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R31" t="n">
-        <v>42.1965684198027</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S31" t="n">
-        <v>16.35479613036025</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T31" t="n">
-        <v>4.009783088820718</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05118872028281775</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.092135301341291</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H32" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I32" t="n">
-        <v>80.65704620496021</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J32" t="n">
-        <v>177.5673685322156</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K32" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L32" t="n">
-        <v>330.1546415664161</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M32" t="n">
         <v>367.3606527316442</v>
@@ -33438,7 +33438,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P32" t="n">
-        <v>300.8516715020046</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q32" t="n">
         <v>225.9270760227195</v>
@@ -33447,13 +33447,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S32" t="n">
-        <v>47.67453317931472</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T32" t="n">
-        <v>9.158322281621507</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1673708241073033</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33505,34 +33505,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L33" t="n">
-        <v>243.0502412793307</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M33" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N33" t="n">
-        <v>291.1349612690239</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O33" t="n">
-        <v>266.3316117297212</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P33" t="n">
-        <v>213.7545986227553</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q33" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R33" t="n">
-        <v>69.5004386536755</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S33" t="n">
-        <v>20.79219819852469</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T33" t="n">
-        <v>4.511931557129679</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07364414946348775</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9384598718516576</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H34" t="n">
-        <v>8.34376140609929</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I34" t="n">
-        <v>28.2220477825935</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J34" t="n">
-        <v>66.34911293991219</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K34" t="n">
-        <v>109.0319742024017</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L34" t="n">
         <v>139.5233885842001</v>
@@ -33599,19 +33599,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.58321708750563</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R34" t="n">
-        <v>42.1965684198027</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S34" t="n">
-        <v>16.35479613036025</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T34" t="n">
-        <v>4.009783088820718</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05118872028281775</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.092135301341291</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H35" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I35" t="n">
-        <v>80.65704620496021</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J35" t="n">
-        <v>177.5673685322156</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K35" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L35" t="n">
-        <v>330.1546415664161</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M35" t="n">
         <v>367.3606527316442</v>
@@ -33675,7 +33675,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P35" t="n">
-        <v>300.8516715020046</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q35" t="n">
         <v>225.9270760227195</v>
@@ -33684,13 +33684,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S35" t="n">
-        <v>47.67453317931472</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T35" t="n">
-        <v>9.158322281621507</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1673708241073033</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33742,34 +33742,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L36" t="n">
-        <v>243.0502412793307</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M36" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N36" t="n">
-        <v>291.1349612690239</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O36" t="n">
-        <v>266.3316117297212</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P36" t="n">
-        <v>213.7545986227553</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q36" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R36" t="n">
-        <v>69.5004386536755</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S36" t="n">
-        <v>20.79219819852469</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T36" t="n">
-        <v>4.511931557129679</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07364414946348775</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9384598718516576</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H37" t="n">
-        <v>8.34376140609929</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I37" t="n">
-        <v>28.2220477825935</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J37" t="n">
-        <v>66.34911293991219</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K37" t="n">
-        <v>109.0319742024017</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L37" t="n">
         <v>139.5233885842001</v>
@@ -33836,19 +33836,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.58321708750563</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R37" t="n">
-        <v>42.1965684198027</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S37" t="n">
-        <v>16.35479613036025</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T37" t="n">
-        <v>4.009783088820718</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05118872028281775</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.092135301341291</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H38" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I38" t="n">
-        <v>80.65704620496021</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J38" t="n">
-        <v>177.5673685322156</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K38" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L38" t="n">
-        <v>330.1546415664161</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M38" t="n">
         <v>367.3606527316442</v>
@@ -33912,7 +33912,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P38" t="n">
-        <v>300.8516715020046</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q38" t="n">
         <v>225.9270760227195</v>
@@ -33921,13 +33921,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S38" t="n">
-        <v>47.67453317931472</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T38" t="n">
-        <v>9.158322281621507</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1673708241073033</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33979,34 +33979,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L39" t="n">
-        <v>243.0502412793307</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M39" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N39" t="n">
-        <v>291.1349612690239</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O39" t="n">
-        <v>266.3316117297212</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P39" t="n">
-        <v>213.7545986227553</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q39" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R39" t="n">
-        <v>69.5004386536755</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S39" t="n">
-        <v>20.79219819852469</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T39" t="n">
-        <v>4.511931557129679</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07364414946348775</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9384598718516576</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H40" t="n">
-        <v>8.34376140609929</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I40" t="n">
-        <v>28.2220477825935</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J40" t="n">
-        <v>66.34911293991219</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K40" t="n">
-        <v>109.0319742024017</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L40" t="n">
         <v>139.5233885842001</v>
@@ -34073,19 +34073,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.58321708750563</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R40" t="n">
-        <v>42.1965684198027</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S40" t="n">
-        <v>16.35479613036025</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T40" t="n">
-        <v>4.009783088820718</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05118872028281775</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.092135301341291</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H41" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I41" t="n">
-        <v>80.65704620496021</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J41" t="n">
-        <v>177.5673685322156</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K41" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L41" t="n">
-        <v>330.1546415664161</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M41" t="n">
         <v>367.3606527316442</v>
@@ -34149,7 +34149,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P41" t="n">
-        <v>300.8516715020046</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q41" t="n">
         <v>225.9270760227195</v>
@@ -34158,13 +34158,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S41" t="n">
-        <v>47.67453317931472</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T41" t="n">
-        <v>9.158322281621507</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1673708241073033</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34216,34 +34216,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L42" t="n">
-        <v>243.0502412793307</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M42" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N42" t="n">
-        <v>291.1349612690239</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O42" t="n">
-        <v>266.3316117297212</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P42" t="n">
-        <v>213.7545986227553</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q42" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R42" t="n">
-        <v>69.5004386536755</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S42" t="n">
-        <v>20.79219819852469</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T42" t="n">
-        <v>4.511931557129679</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07364414946348775</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9384598718516576</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H43" t="n">
-        <v>8.34376140609929</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I43" t="n">
-        <v>28.2220477825935</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J43" t="n">
-        <v>66.34911293991219</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K43" t="n">
-        <v>109.0319742024017</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L43" t="n">
         <v>139.5233885842001</v>
@@ -34310,19 +34310,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.58321708750563</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R43" t="n">
-        <v>42.1965684198027</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S43" t="n">
-        <v>16.35479613036025</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T43" t="n">
-        <v>4.009783088820718</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05118872028281775</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36208,7 +36208,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>165.6180791776031</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K23" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L23" t="n">
-        <v>512.0494411468793</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M23" t="n">
-        <v>586.527952997204</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N23" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O23" t="n">
-        <v>503.2032315949264</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P23" t="n">
-        <v>391.4173839182177</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q23" t="n">
         <v>215.9363768081747</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>307.3809080913681</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L24" t="n">
         <v>475.3362068029156</v>
       </c>
       <c r="M24" t="n">
-        <v>607.199197461694</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N24" t="n">
-        <v>639.1356235292442</v>
+        <v>504.3685940038549</v>
       </c>
       <c r="O24" t="n">
-        <v>517.5083941356735</v>
+        <v>123.7353672852767</v>
       </c>
       <c r="P24" t="n">
-        <v>79.78019120842501</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.907514313001599</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>86.7624823765188</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L25" t="n">
         <v>167.1134138445162</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>165.6180791776031</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K26" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L26" t="n">
-        <v>512.0494411468793</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M26" t="n">
-        <v>586.527952997204</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N26" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O26" t="n">
-        <v>503.2032315949264</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P26" t="n">
-        <v>391.4173839182177</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q26" t="n">
         <v>215.9363768081747</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>42.9156710787895</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L27" t="n">
-        <v>421.2493827492241</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M27" t="n">
-        <v>607.199197461694</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N27" t="n">
-        <v>639.1356235292442</v>
+        <v>504.3685940038549</v>
       </c>
       <c r="O27" t="n">
-        <v>517.5976865620063</v>
+        <v>123.7353672852767</v>
       </c>
       <c r="P27" t="n">
         <v>398.2429598483621</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.907514313001599</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>86.7624823765188</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L28" t="n">
         <v>167.1134138445162</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>165.6180791776031</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K29" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L29" t="n">
-        <v>512.0494411468793</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M29" t="n">
-        <v>586.527952997204</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N29" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O29" t="n">
-        <v>503.2032315949264</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P29" t="n">
-        <v>391.4173839182177</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q29" t="n">
         <v>215.9363768081747</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>42.9156710787895</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L30" t="n">
-        <v>421.2493827492241</v>
+        <v>340.5691772775264</v>
       </c>
       <c r="M30" t="n">
-        <v>607.199197461694</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N30" t="n">
-        <v>639.1356235292442</v>
+        <v>639.1356235292441</v>
       </c>
       <c r="O30" t="n">
-        <v>517.5976865620063</v>
+        <v>123.7353672852767</v>
       </c>
       <c r="P30" t="n">
         <v>398.2429598483621</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.907514313001599</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>86.7624823765188</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L31" t="n">
         <v>167.1134138445162</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>165.6180791776031</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K32" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L32" t="n">
-        <v>512.0494411468793</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M32" t="n">
-        <v>586.527952997204</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N32" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O32" t="n">
-        <v>503.2032315949264</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P32" t="n">
-        <v>391.4173839182177</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q32" t="n">
         <v>215.9363768081747</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>42.9156710787895</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L33" t="n">
-        <v>421.2493827492241</v>
+        <v>426.0492323443504</v>
       </c>
       <c r="M33" t="n">
-        <v>607.199197461694</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N33" t="n">
-        <v>639.1356235292442</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O33" t="n">
-        <v>517.5976865620063</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P33" t="n">
         <v>398.2429598483621</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.907514313001599</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>86.7624823765188</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L34" t="n">
         <v>167.1134138445162</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>165.6180791776031</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K35" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L35" t="n">
-        <v>512.0494411468793</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M35" t="n">
-        <v>586.527952997204</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N35" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O35" t="n">
-        <v>503.2032315949264</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P35" t="n">
-        <v>391.4173839182177</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q35" t="n">
         <v>215.9363768081747</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>42.9156710787895</v>
+        <v>42.91567107878947</v>
       </c>
       <c r="L36" t="n">
-        <v>421.2493827492241</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M36" t="n">
-        <v>607.199197461694</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N36" t="n">
-        <v>639.1356235292442</v>
+        <v>639.1356235292441</v>
       </c>
       <c r="O36" t="n">
-        <v>517.5976865620063</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P36" t="n">
-        <v>398.2429598483621</v>
+        <v>344.1561357946712</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.907514313001599</v>
+        <v>2.90751431300157</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>86.7624823765188</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L37" t="n">
         <v>167.1134138445162</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>165.6180791776031</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K38" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L38" t="n">
-        <v>512.0494411468793</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M38" t="n">
-        <v>586.527952997204</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N38" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O38" t="n">
-        <v>503.2032315949264</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P38" t="n">
-        <v>391.4173839182177</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q38" t="n">
         <v>215.9363768081747</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K39" t="n">
-        <v>42.9156710787895</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L39" t="n">
         <v>475.3362068029156</v>
       </c>
       <c r="M39" t="n">
-        <v>553.1123734080024</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N39" t="n">
-        <v>639.1356235292442</v>
+        <v>399.3572770905801</v>
       </c>
       <c r="O39" t="n">
-        <v>517.5976865620063</v>
+        <v>123.7353672852767</v>
       </c>
       <c r="P39" t="n">
         <v>398.2429598483621</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.907514313001599</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>86.7624823765188</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L40" t="n">
         <v>167.1134138445162</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>165.6180791776031</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K41" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L41" t="n">
-        <v>512.0494411468793</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M41" t="n">
-        <v>586.527952997204</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N41" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O41" t="n">
-        <v>503.2032315949264</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P41" t="n">
-        <v>391.4173839182177</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q41" t="n">
         <v>215.9363768081747</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>105.0113169132748</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>42.9156710787895</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L42" t="n">
         <v>475.3362068029156</v>
       </c>
       <c r="M42" t="n">
-        <v>607.199197461694</v>
+        <v>141.494133711694</v>
       </c>
       <c r="N42" t="n">
-        <v>639.1356235292442</v>
+        <v>576.2113384771252</v>
       </c>
       <c r="O42" t="n">
-        <v>517.5976865620063</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P42" t="n">
-        <v>239.1448188813959</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.907514313001599</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>86.7624823765188</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L43" t="n">
         <v>167.1134138445162</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>105.0113169132748</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>307.3809080913681</v>
+        <v>258.0939336328025</v>
       </c>
       <c r="L45" t="n">
         <v>475.3362068029156</v>
@@ -38110,7 +38110,7 @@
         <v>159.7932491856906</v>
       </c>
       <c r="O45" t="n">
-        <v>363.299395190166</v>
+        <v>517.5976865620063</v>
       </c>
       <c r="P45" t="n">
         <v>398.2429598483621</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1394781.133497872</v>
+        <v>1421181.858564994</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625948.6630396501</v>
+        <v>625948.66303965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156754</v>
+        <v>5996855.681156748</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9380751.680079421</v>
+        <v>9380751.680079419</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>121.1156257058473</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,7 +709,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>274.452171367011</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>37.83808333974897</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044668</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>106.423610151193</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>274.452171367011</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -952,13 +952,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>176.0251356438853</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>237.6596569995503</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>403.2634945072138</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>97.4271589199797</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>320.6160979309287</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>137.3320938521095</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.6064608052456</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>196.7218456862862</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>116.0469435197786</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>269.8329044591238</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>43.99240337009272</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>141.3312828899235</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>391.0820166340255</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364034</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>97.41446477089258</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>168.3414238818276</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>111.4675743125969</v>
       </c>
       <c r="I23" t="n">
         <v>129.8188433654457</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826972</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>152.5299750832467</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3490825967930481</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>53.55762244236434</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>340.7966280689972</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>53.25180475196693</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.44902381826972</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1782820837292</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>53.55762244236441</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
-        <v>212.3059656622415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>168.6866186044016</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>124.6038955080098</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>105.7443427977097</v>
+        <v>71.45917304896463</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>77.97049143654111</v>
+        <v>84.41589336397588</v>
       </c>
       <c r="I32" t="n">
         <v>129.8188433654457</v>
@@ -3079,19 +3079,19 @@
         <v>18.44902381826972</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16.74223787077029</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>147.6687976612685</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.6462919191346</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>100.3735187303903</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>80.64248799623994</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>125.8632855842551</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>120.1169689006661</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>35.54493829810275</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>191.465147760743</v>
+        <v>138.4484446675646</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>324.6674591255905</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.2106022137938</v>
@@ -3760,7 +3760,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>129.5779424159014</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826972</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>87.11061241409749</v>
       </c>
       <c r="U43" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
-        <v>151.8118546648521</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>11.64865078126293</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826969</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
-        <v>213.5479530062888</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85619463218983</v>
+        <v>50.85619463218984</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.65739549896763</v>
+        <v>30.65739549896765</v>
       </c>
       <c r="S45" t="n">
         <v>150.8909729053131</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>207.661801906612</v>
       </c>
       <c r="T46" t="n">
-        <v>92.4462938262879</v>
+        <v>190.0909996005753</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942404</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942404</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942404</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942404</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.645519427256</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C5" t="n">
-        <v>1529.645519427256</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1916.245359491378</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="6">
@@ -4628,13 +4628,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810045</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810045</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810045</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2465.942913862886</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>2096.980396922474</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>1738.714698315724</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E8" t="n">
-        <v>1352.926445717479</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>941.9405409278718</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,22 +4807,22 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>418.6523285934728</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>249.7161456655659</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>600.3007934237125</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>857.6950425204218</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C11" t="n">
-        <v>857.6950425204218</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D11" t="n">
-        <v>857.6950425204218</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E11" t="n">
         <v>471.9067899221776</v>
@@ -5041,13 +5041,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5071,22 +5071,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V11" t="n">
-        <v>2311.057514205145</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W11" t="n">
-        <v>1958.288858935031</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X11" t="n">
-        <v>1634.434214560355</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y11" t="n">
-        <v>1244.294882584544</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5141,28 +5141,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
         <v>53.94298182036445</v>
@@ -5226,25 +5226,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>940.4137200851858</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="C14" t="n">
-        <v>823.1945852167225</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="D14" t="n">
-        <v>464.928886609972</v>
+        <v>737.4873759626223</v>
       </c>
       <c r="E14" t="n">
         <v>464.928886609972</v>
@@ -5281,10 +5281,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656313</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.387305656313</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W14" t="n">
-        <v>2090.618650386199</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.152892125119</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="Y14" t="n">
-        <v>1327.013560149308</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="15">
@@ -5463,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V16" t="n">
-        <v>571.3497027553424</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W16" t="n">
-        <v>281.9325327183818</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1520.223993023726</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="C17" t="n">
-        <v>1520.223993023726</v>
+        <v>1000.453914126405</v>
       </c>
       <c r="D17" t="n">
-        <v>1161.958294416975</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E17" t="n">
-        <v>776.1700418187309</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
-        <v>776.1700418187309</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036444</v>
@@ -5545,22 +5545,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628376</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284805</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W17" t="n">
-        <v>1893.689751284805</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X17" t="n">
-        <v>1520.223993023726</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y17" t="n">
-        <v>1520.223993023726</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1964.838184214438</v>
+        <v>1683.321707331112</v>
       </c>
       <c r="C20" t="n">
-        <v>1595.875667274026</v>
+        <v>1314.3591903907</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.875667274026</v>
+        <v>956.0934917839497</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>570.3052391857054</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861747</v>
+        <v>570.3052391857054</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>152.3414310838923</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036444</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2295.901071558009</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V20" t="n">
-        <v>1964.838184214438</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W20" t="n">
-        <v>1964.838184214438</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="X20" t="n">
-        <v>1964.838184214438</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y20" t="n">
-        <v>1964.838184214438</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5943,16 +5943,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V22" t="n">
-        <v>184.2708856551153</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036444</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
         <v>53.94298182036444</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1353.372297404497</v>
+        <v>2252.312770432172</v>
       </c>
       <c r="C23" t="n">
-        <v>1353.372297404497</v>
+        <v>1883.350253491761</v>
       </c>
       <c r="D23" t="n">
-        <v>995.106598797747</v>
+        <v>1525.08455488501</v>
       </c>
       <c r="E23" t="n">
-        <v>609.3183461995027</v>
+        <v>1139.296302286766</v>
       </c>
       <c r="F23" t="n">
-        <v>198.3324414098951</v>
+        <v>728.3103974971584</v>
       </c>
       <c r="G23" t="n">
-        <v>198.3324414098951</v>
+        <v>310.9259508165586</v>
       </c>
       <c r="H23" t="n">
         <v>198.3324414098951</v>
       </c>
       <c r="I23" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J23" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K23" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L23" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.237002375319</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N23" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O23" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P23" t="n">
-        <v>3146.337816775585</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q23" t="n">
         <v>3360.114829815677</v>
       </c>
       <c r="R23" t="n">
-        <v>3341.479452221465</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="S23" t="n">
-        <v>3187.408770319196</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="T23" t="n">
-        <v>3187.408770319196</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="U23" t="n">
-        <v>3187.408770319196</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="V23" t="n">
-        <v>2856.345882975625</v>
+        <v>3029.051942472106</v>
       </c>
       <c r="W23" t="n">
-        <v>2503.577227705511</v>
+        <v>3029.051942472106</v>
       </c>
       <c r="X23" t="n">
-        <v>2130.111469444431</v>
+        <v>3029.051942472106</v>
       </c>
       <c r="Y23" t="n">
-        <v>1739.972137468619</v>
+        <v>2638.912610496294</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I24" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J24" t="n">
-        <v>67.20229659631354</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K24" t="n">
-        <v>371.5093956067679</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L24" t="n">
-        <v>842.0922403416544</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M24" t="n">
-        <v>1443.219445828731</v>
+        <v>1547.180649572873</v>
       </c>
       <c r="N24" t="n">
-        <v>1942.544353892548</v>
+        <v>1867.898798762123</v>
       </c>
       <c r="O24" t="n">
-        <v>2065.042367504971</v>
+        <v>2380.320508458509</v>
       </c>
       <c r="P24" t="n">
         <v>2459.30289775485</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.1209543791007</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="C25" t="n">
-        <v>383.1847714511938</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D25" t="n">
-        <v>382.8321627675645</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E25" t="n">
-        <v>382.8321627675645</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F25" t="n">
-        <v>235.9422152696541</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G25" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H25" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I25" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J25" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K25" t="n">
         <v>153.0971541490671</v>
@@ -6177,22 +6177,22 @@
         <v>954.5619983528705</v>
       </c>
       <c r="T25" t="n">
-        <v>954.5619983528705</v>
+        <v>900.4633898252298</v>
       </c>
       <c r="U25" t="n">
-        <v>954.5619983528705</v>
+        <v>611.3039548391611</v>
       </c>
       <c r="V25" t="n">
-        <v>954.5619983528705</v>
+        <v>356.6194666332742</v>
       </c>
       <c r="W25" t="n">
-        <v>954.5619983528705</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="X25" t="n">
-        <v>954.5619983528705</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.7694192093404</v>
+        <v>67.20229659631353</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1651.392913191983</v>
+        <v>2035.968010689659</v>
       </c>
       <c r="C26" t="n">
-        <v>1282.430396251572</v>
+        <v>1667.005493749247</v>
       </c>
       <c r="D26" t="n">
-        <v>924.1646976448212</v>
+        <v>1322.766475497735</v>
       </c>
       <c r="E26" t="n">
-        <v>538.3764450465769</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="F26" t="n">
-        <v>484.5867432769134</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G26" t="n">
-        <v>67.20229659631353</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H26" t="n">
-        <v>67.20229659631353</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I26" t="n">
         <v>67.20229659631353</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821406</v>
       </c>
       <c r="K26" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M26" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N26" t="n">
         <v>2260.663407417571</v>
@@ -6250,28 +6250,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R26" t="n">
-        <v>3341.479452221465</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="S26" t="n">
-        <v>3178.504162921535</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="T26" t="n">
-        <v>2962.405650514959</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="U26" t="n">
-        <v>2708.690214066748</v>
+        <v>3106.399393367466</v>
       </c>
       <c r="V26" t="n">
-        <v>2377.627326723177</v>
+        <v>2775.336506023895</v>
       </c>
       <c r="W26" t="n">
-        <v>2024.858671453063</v>
+        <v>2422.56785075378</v>
       </c>
       <c r="X26" t="n">
-        <v>1651.392913191983</v>
+        <v>2422.56785075378</v>
       </c>
       <c r="Y26" t="n">
-        <v>1651.392913191983</v>
+        <v>2422.56785075378</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>67.20229659631353</v>
       </c>
       <c r="K27" t="n">
-        <v>371.5093956067679</v>
+        <v>322.7152908927883</v>
       </c>
       <c r="L27" t="n">
-        <v>842.0922403416544</v>
+        <v>793.2981356276748</v>
       </c>
       <c r="M27" t="n">
-        <v>1443.219445828731</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N27" t="n">
-        <v>1942.544353892548</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O27" t="n">
         <v>2065.042367504971</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>512.1219770889527</v>
+        <v>121.3009051239544</v>
       </c>
       <c r="C28" t="n">
-        <v>512.1219770889527</v>
+        <v>121.3009051239544</v>
       </c>
       <c r="D28" t="n">
-        <v>362.005337676617</v>
+        <v>121.3009051239544</v>
       </c>
       <c r="E28" t="n">
-        <v>214.0922440942239</v>
+        <v>121.3009051239544</v>
       </c>
       <c r="F28" t="n">
-        <v>67.20229659631353</v>
+        <v>121.3009051239544</v>
       </c>
       <c r="G28" t="n">
         <v>67.20229659631353</v>
@@ -6417,19 +6417,19 @@
         <v>954.5619983528705</v>
       </c>
       <c r="U28" t="n">
-        <v>954.5619983528705</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="V28" t="n">
-        <v>740.11152798697</v>
+        <v>410.718075160915</v>
       </c>
       <c r="W28" t="n">
-        <v>740.11152798697</v>
+        <v>121.3009051239544</v>
       </c>
       <c r="X28" t="n">
-        <v>512.1219770889527</v>
+        <v>121.3009051239544</v>
       </c>
       <c r="Y28" t="n">
-        <v>512.1219770889527</v>
+        <v>121.3009051239544</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1424.228870516101</v>
+        <v>1390.397685722094</v>
       </c>
       <c r="C29" t="n">
-        <v>1424.228870516101</v>
+        <v>1021.435168781682</v>
       </c>
       <c r="D29" t="n">
-        <v>1065.963171909351</v>
+        <v>1021.435168781682</v>
       </c>
       <c r="E29" t="n">
-        <v>895.572648066521</v>
+        <v>1021.435168781682</v>
       </c>
       <c r="F29" t="n">
-        <v>484.5867432769134</v>
+        <v>610.4492639920747</v>
       </c>
       <c r="G29" t="n">
-        <v>67.20229659631353</v>
+        <v>193.0648173114749</v>
       </c>
       <c r="H29" t="n">
         <v>67.20229659631353</v>
@@ -6502,13 +6502,13 @@
         <v>2540.602616023107</v>
       </c>
       <c r="W29" t="n">
-        <v>2187.833960752993</v>
+        <v>2540.602616023107</v>
       </c>
       <c r="X29" t="n">
-        <v>1814.368202491913</v>
+        <v>2167.136857762027</v>
       </c>
       <c r="Y29" t="n">
-        <v>1424.228870516101</v>
+        <v>1776.997525786216</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>67.20229659631353</v>
       </c>
       <c r="K30" t="n">
-        <v>371.5093956067679</v>
+        <v>322.7152908927883</v>
       </c>
       <c r="L30" t="n">
-        <v>708.672881111519</v>
+        <v>793.2981356276748</v>
       </c>
       <c r="M30" t="n">
-        <v>1309.800086598596</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N30" t="n">
-        <v>1942.544353892548</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O30" t="n">
         <v>2065.042367504971</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.1314034810833</v>
+        <v>437.4130124687845</v>
       </c>
       <c r="C31" t="n">
-        <v>217.3189360086492</v>
+        <v>365.2320295910424</v>
       </c>
       <c r="D31" t="n">
-        <v>67.20229659631353</v>
+        <v>215.1153901787067</v>
       </c>
       <c r="E31" t="n">
         <v>67.20229659631353</v>
@@ -6654,19 +6654,19 @@
         <v>954.5619983528705</v>
       </c>
       <c r="U31" t="n">
-        <v>954.5619983528705</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="V31" t="n">
-        <v>954.5619983528705</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="W31" t="n">
-        <v>954.5619983528705</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="X31" t="n">
-        <v>726.5724474548532</v>
+        <v>437.4130124687845</v>
       </c>
       <c r="Y31" t="n">
-        <v>505.7798683113231</v>
+        <v>437.4130124687845</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1860.211634576881</v>
+        <v>1421.815140902196</v>
       </c>
       <c r="C32" t="n">
-        <v>1491.249117636469</v>
+        <v>1052.852623961784</v>
       </c>
       <c r="D32" t="n">
-        <v>1491.249117636469</v>
+        <v>694.5869253550338</v>
       </c>
       <c r="E32" t="n">
-        <v>1105.460865038225</v>
+        <v>694.5869253550338</v>
       </c>
       <c r="F32" t="n">
-        <v>694.4749602486172</v>
+        <v>283.6010205654263</v>
       </c>
       <c r="G32" t="n">
-        <v>277.0905135680174</v>
+        <v>283.6010205654263</v>
       </c>
       <c r="H32" t="n">
         <v>198.3324414098951</v>
@@ -6700,10 +6700,10 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821406</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726755</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L32" t="n">
         <v>1104.574328908086</v>
@@ -6712,10 +6712,10 @@
         <v>1685.237002375318</v>
       </c>
       <c r="N32" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O32" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P32" t="n">
         <v>3146.337816775584</v>
@@ -6727,25 +6727,25 @@
         <v>3341.479452221465</v>
       </c>
       <c r="S32" t="n">
-        <v>3341.479452221465</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T32" t="n">
-        <v>3341.479452221465</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="U32" t="n">
-        <v>3341.479452221465</v>
+        <v>2924.788726473324</v>
       </c>
       <c r="V32" t="n">
-        <v>3010.416564877894</v>
+        <v>2924.788726473324</v>
       </c>
       <c r="W32" t="n">
-        <v>3010.416564877894</v>
+        <v>2572.020071203209</v>
       </c>
       <c r="X32" t="n">
-        <v>2636.950806616814</v>
+        <v>2198.554312942129</v>
       </c>
       <c r="Y32" t="n">
-        <v>2246.811474641002</v>
+        <v>1808.414980966318</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>371.5093956067679</v>
       </c>
       <c r="L33" t="n">
-        <v>793.2981356276748</v>
+        <v>842.0922403416544</v>
       </c>
       <c r="M33" t="n">
-        <v>1394.425341114752</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N33" t="n">
-        <v>1552.620657808585</v>
+        <v>1601.414762522565</v>
       </c>
       <c r="O33" t="n">
-        <v>2065.042367504971</v>
+        <v>2113.836472218951</v>
       </c>
       <c r="P33" t="n">
-        <v>2459.30289775485</v>
+        <v>2508.097002468829</v>
       </c>
       <c r="Q33" t="n">
         <v>2670.157851783212</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>382.1433809756588</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="C34" t="n">
-        <v>382.1433809756588</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D34" t="n">
-        <v>232.0267415633231</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E34" t="n">
-        <v>84.11364798092998</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F34" t="n">
         <v>67.20229659631353</v>
@@ -6882,28 +6882,28 @@
         <v>954.5619983528705</v>
       </c>
       <c r="R34" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="S34" t="n">
-        <v>608.3411651569323</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="T34" t="n">
-        <v>382.1433809756588</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="U34" t="n">
-        <v>382.1433809756588</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="V34" t="n">
-        <v>382.1433809756588</v>
+        <v>805.4015966748216</v>
       </c>
       <c r="W34" t="n">
-        <v>382.1433809756588</v>
+        <v>515.9844266378609</v>
       </c>
       <c r="X34" t="n">
-        <v>382.1433809756588</v>
+        <v>287.9948757398436</v>
       </c>
       <c r="Y34" t="n">
-        <v>382.1433809756588</v>
+        <v>67.20229659631353</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1526.677751742079</v>
+        <v>1728.733356235901</v>
       </c>
       <c r="C35" t="n">
-        <v>1157.715234801667</v>
+        <v>1359.77083929549</v>
       </c>
       <c r="D35" t="n">
-        <v>799.4495361949167</v>
+        <v>1001.505140688739</v>
       </c>
       <c r="E35" t="n">
-        <v>799.4495361949167</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="F35" t="n">
-        <v>388.4636314053092</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G35" t="n">
-        <v>388.4636314053092</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H35" t="n">
-        <v>67.20229659631354</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I35" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J35" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821406</v>
       </c>
       <c r="K35" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L35" t="n">
         <v>1104.574328908086</v>
@@ -6955,7 +6955,7 @@
         <v>2758.834606696549</v>
       </c>
       <c r="P35" t="n">
-        <v>3146.337816775585</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q35" t="n">
         <v>3360.114829815677</v>
@@ -6967,22 +6967,22 @@
         <v>3178.504162921535</v>
       </c>
       <c r="T35" t="n">
-        <v>2962.40565051496</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="U35" t="n">
-        <v>2962.40565051496</v>
+        <v>2924.788726473324</v>
       </c>
       <c r="V35" t="n">
-        <v>2631.342763171389</v>
+        <v>2593.725839129753</v>
       </c>
       <c r="W35" t="n">
-        <v>2278.574107901275</v>
+        <v>2492.338446472793</v>
       </c>
       <c r="X35" t="n">
-        <v>1905.108349640195</v>
+        <v>2118.872688211713</v>
       </c>
       <c r="Y35" t="n">
-        <v>1905.108349640195</v>
+        <v>1728.733356235901</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I36" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J36" t="n">
-        <v>67.20229659631354</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K36" t="n">
-        <v>109.6888109643151</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L36" t="n">
-        <v>580.2716556992016</v>
+        <v>946.0534440857964</v>
       </c>
       <c r="M36" t="n">
-        <v>1181.398861186279</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.14312848023</v>
+        <v>1552.620657808585</v>
       </c>
       <c r="O36" t="n">
-        <v>2326.564838176616</v>
+        <v>2065.042367504971</v>
       </c>
       <c r="P36" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.4520961919573</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="C37" t="n">
-        <v>467.5159132640504</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D37" t="n">
-        <v>317.3992738517146</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E37" t="n">
-        <v>235.9422152696541</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F37" t="n">
-        <v>235.9422152696541</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J37" t="n">
-        <v>67.20229659631354</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K37" t="n">
         <v>153.0971541490671</v>
@@ -7119,28 +7119,28 @@
         <v>954.5619983528705</v>
       </c>
       <c r="R37" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="S37" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="T37" t="n">
-        <v>818.100561022197</v>
+        <v>954.5619983528705</v>
       </c>
       <c r="U37" t="n">
-        <v>818.100561022197</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="V37" t="n">
-        <v>818.100561022197</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="W37" t="n">
-        <v>818.100561022197</v>
+        <v>375.9853933298412</v>
       </c>
       <c r="X37" t="n">
-        <v>818.100561022197</v>
+        <v>248.8507614265532</v>
       </c>
       <c r="Y37" t="n">
-        <v>818.100561022197</v>
+        <v>248.8507614265532</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1639.626599271516</v>
+        <v>1675.530577350407</v>
       </c>
       <c r="C38" t="n">
-        <v>1639.626599271516</v>
+        <v>1306.568060409995</v>
       </c>
       <c r="D38" t="n">
-        <v>1281.360900664765</v>
+        <v>1306.568060409995</v>
       </c>
       <c r="E38" t="n">
-        <v>895.572648066521</v>
+        <v>920.7798078117512</v>
       </c>
       <c r="F38" t="n">
-        <v>484.5867432769134</v>
+        <v>509.7939030221436</v>
       </c>
       <c r="G38" t="n">
-        <v>67.20229659631353</v>
+        <v>509.7939030221436</v>
       </c>
       <c r="H38" t="n">
-        <v>67.20229659631353</v>
+        <v>188.532568213148</v>
       </c>
       <c r="I38" t="n">
         <v>67.20229659631353</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821406</v>
       </c>
       <c r="K38" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L38" t="n">
         <v>1104.574328908086</v>
@@ -7186,7 +7186,7 @@
         <v>1685.237002375318</v>
       </c>
       <c r="N38" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.663407417572</v>
       </c>
       <c r="O38" t="n">
         <v>2758.834606696548</v>
@@ -7210,16 +7210,16 @@
         <v>3178.504162921535</v>
       </c>
       <c r="V38" t="n">
-        <v>3142.600184842643</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="W38" t="n">
-        <v>2789.831529572529</v>
+        <v>2825.73550765142</v>
       </c>
       <c r="X38" t="n">
-        <v>2416.365771311449</v>
+        <v>2452.269749390341</v>
       </c>
       <c r="Y38" t="n">
-        <v>2026.226439335637</v>
+        <v>2062.130417414529</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J39" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K39" t="n">
-        <v>475.4705993509099</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L39" t="n">
-        <v>946.0534440857964</v>
+        <v>842.0922403416544</v>
       </c>
       <c r="M39" t="n">
-        <v>1547.180649572873</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N39" t="n">
-        <v>1942.544353892548</v>
+        <v>1601.414762522565</v>
       </c>
       <c r="O39" t="n">
-        <v>2065.042367504971</v>
+        <v>2113.836472218951</v>
       </c>
       <c r="P39" t="n">
-        <v>2459.30289775485</v>
+        <v>2508.097002468829</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217.3189360086492</v>
+        <v>236.1384795242204</v>
       </c>
       <c r="C40" t="n">
-        <v>217.3189360086492</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D40" t="n">
         <v>67.20229659631353</v>
@@ -7368,16 +7368,16 @@
         <v>665.4025633668018</v>
       </c>
       <c r="V40" t="n">
-        <v>410.718075160915</v>
+        <v>665.4025633668018</v>
       </c>
       <c r="W40" t="n">
-        <v>410.718075160915</v>
+        <v>375.9853933298412</v>
       </c>
       <c r="X40" t="n">
-        <v>217.3189360086492</v>
+        <v>236.1384795242204</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.3189360086492</v>
+        <v>236.1384795242204</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2246.811474641003</v>
+        <v>2102.471562935285</v>
       </c>
       <c r="C41" t="n">
-        <v>1877.848957700591</v>
+        <v>1733.509045994873</v>
       </c>
       <c r="D41" t="n">
-        <v>1519.583259093841</v>
+        <v>1733.509045994873</v>
       </c>
       <c r="E41" t="n">
-        <v>1133.795006495596</v>
+        <v>1347.720793396629</v>
       </c>
       <c r="F41" t="n">
-        <v>805.848078085909</v>
+        <v>936.7348886070215</v>
       </c>
       <c r="G41" t="n">
-        <v>388.4636314053092</v>
+        <v>519.3504419264217</v>
       </c>
       <c r="H41" t="n">
-        <v>67.20229659631354</v>
+        <v>198.0891071174261</v>
       </c>
       <c r="I41" t="n">
         <v>67.20229659631354</v>
@@ -7435,28 +7435,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R41" t="n">
-        <v>3341.479452221465</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="S41" t="n">
-        <v>3341.479452221465</v>
+        <v>3197.139540515747</v>
       </c>
       <c r="T41" t="n">
-        <v>3341.479452221465</v>
+        <v>3197.139540515747</v>
       </c>
       <c r="U41" t="n">
-        <v>3341.479452221465</v>
+        <v>3197.139540515747</v>
       </c>
       <c r="V41" t="n">
-        <v>3010.416564877894</v>
+        <v>2866.076653172177</v>
       </c>
       <c r="W41" t="n">
-        <v>3010.416564877894</v>
+        <v>2866.076653172177</v>
       </c>
       <c r="X41" t="n">
-        <v>2636.950806616815</v>
+        <v>2492.610894911097</v>
       </c>
       <c r="Y41" t="n">
-        <v>2246.811474641003</v>
+        <v>2102.471562935285</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>67.20229659631354</v>
       </c>
       <c r="J42" t="n">
-        <v>67.20229659631354</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K42" t="n">
-        <v>371.5093956067679</v>
+        <v>475.4705993509099</v>
       </c>
       <c r="L42" t="n">
-        <v>842.0922403416544</v>
+        <v>793.2981356276748</v>
       </c>
       <c r="M42" t="n">
-        <v>982.1714327162314</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N42" t="n">
         <v>1552.620657808585</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.6400855875664</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="C43" t="n">
-        <v>222.6400855875664</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="D43" t="n">
-        <v>222.6400855875664</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="E43" t="n">
-        <v>222.6400855875664</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="F43" t="n">
-        <v>222.6400855875664</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="G43" t="n">
-        <v>222.6400855875664</v>
+        <v>67.20229659631354</v>
       </c>
       <c r="H43" t="n">
         <v>67.20229659631354</v>
@@ -7599,22 +7599,22 @@
         <v>954.5619983528705</v>
       </c>
       <c r="T43" t="n">
-        <v>954.5619983528705</v>
+        <v>866.5714807628731</v>
       </c>
       <c r="U43" t="n">
-        <v>665.4025633668018</v>
+        <v>577.4120457768042</v>
       </c>
       <c r="V43" t="n">
-        <v>512.057255624527</v>
+        <v>577.4120457768042</v>
       </c>
       <c r="W43" t="n">
-        <v>222.6400855875664</v>
+        <v>287.9948757398437</v>
       </c>
       <c r="X43" t="n">
-        <v>222.6400855875664</v>
+        <v>287.9948757398437</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.6400855875664</v>
+        <v>67.20229659631354</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1622.800863613683</v>
+        <v>1651.392913191983</v>
       </c>
       <c r="C44" t="n">
-        <v>1253.838346673271</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D44" t="n">
-        <v>895.572648066521</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E44" t="n">
         <v>895.572648066521</v>
@@ -7639,61 +7639,61 @@
         <v>484.5867432769134</v>
       </c>
       <c r="G44" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H44" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I44" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J44" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821401</v>
       </c>
       <c r="K44" t="n">
-        <v>597.6453821726757</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L44" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M44" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N44" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O44" t="n">
         <v>2758.834606696549</v>
       </c>
       <c r="P44" t="n">
-        <v>3146.337816775585</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q44" t="n">
-        <v>3360.114829815678</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="R44" t="n">
-        <v>3341.479452221466</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S44" t="n">
-        <v>3341.479452221466</v>
+        <v>3178.504162921535</v>
       </c>
       <c r="T44" t="n">
-        <v>3341.479452221466</v>
+        <v>2962.405650514959</v>
       </c>
       <c r="U44" t="n">
-        <v>3125.774449184811</v>
+        <v>2708.690214066748</v>
       </c>
       <c r="V44" t="n">
-        <v>3125.774449184811</v>
+        <v>2377.627326723177</v>
       </c>
       <c r="W44" t="n">
-        <v>2773.005793914696</v>
+        <v>2024.858671453063</v>
       </c>
       <c r="X44" t="n">
-        <v>2399.540035653617</v>
+        <v>1651.392913191983</v>
       </c>
       <c r="Y44" t="n">
-        <v>2009.400703677805</v>
+        <v>1651.392913191983</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I45" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J45" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K45" t="n">
-        <v>322.715290892788</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L45" t="n">
-        <v>793.2981356276745</v>
+        <v>842.0922403416544</v>
       </c>
       <c r="M45" t="n">
-        <v>1394.425341114752</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.620657808585</v>
+        <v>1601.414762522565</v>
       </c>
       <c r="O45" t="n">
-        <v>2065.042367504971</v>
+        <v>2113.836472218951</v>
       </c>
       <c r="P45" t="n">
-        <v>2459.30289775485</v>
+        <v>2508.097002468829</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>362.005337676617</v>
+        <v>552.7914917799541</v>
       </c>
       <c r="C46" t="n">
-        <v>362.005337676617</v>
+        <v>383.8553088520472</v>
       </c>
       <c r="D46" t="n">
-        <v>362.005337676617</v>
+        <v>383.8553088520472</v>
       </c>
       <c r="E46" t="n">
-        <v>214.0922440942239</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="F46" t="n">
-        <v>67.20229659631356</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="G46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J46" t="n">
-        <v>67.20229659631356</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K46" t="n">
-        <v>153.0971541490672</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L46" t="n">
-        <v>318.5394338551383</v>
+        <v>318.5394338551382</v>
       </c>
       <c r="M46" t="n">
-        <v>503.3642441804036</v>
+        <v>503.3642441804035</v>
       </c>
       <c r="N46" t="n">
         <v>689.2289500417505</v>
@@ -7836,22 +7836,22 @@
         <v>744.8026024876059</v>
       </c>
       <c r="T46" t="n">
-        <v>651.4225077135777</v>
+        <v>552.7914917799541</v>
       </c>
       <c r="U46" t="n">
-        <v>651.4225077135777</v>
+        <v>552.7914917799541</v>
       </c>
       <c r="V46" t="n">
-        <v>651.4225077135777</v>
+        <v>552.7914917799541</v>
       </c>
       <c r="W46" t="n">
-        <v>362.005337676617</v>
+        <v>552.7914917799541</v>
       </c>
       <c r="X46" t="n">
-        <v>362.005337676617</v>
+        <v>552.7914917799541</v>
       </c>
       <c r="Y46" t="n">
-        <v>362.005337676617</v>
+        <v>552.7914917799541</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951791</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.906554245176</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>21.0797184271341</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>344.5753448181644</v>
+        <v>164.1644772680971</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,7 +9956,7 @@
         <v>21.0797184271341</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>215.1782625540133</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,10 +9965,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>344.5753448181644</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,19 +10193,19 @@
         <v>21.0797184271341</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>215.1782625540133</v>
       </c>
       <c r="L30" t="n">
-        <v>236.0733157780699</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>321.5533708448939</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>160.790313277284</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>21.0797184271341</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>311.4067723781599</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>264.3759445862462</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>21.0797184271341</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>239.5640279048896</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>160.790313277284</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>21.0797184271341</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>216.5420539316193</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>416.4180892914346</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>21.07971842713408</v>
+        <v>21.0797184271341</v>
       </c>
       <c r="K45" t="n">
-        <v>215.178262554013</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>160.790313277284</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23311,7 +23311,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>49.11500274754036</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>248.9058448039441</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>22.82750184132354</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23466,7 +23466,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>15.4236932637327</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23475,7 +23475,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>249.2259482512289</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>112.097465613138</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>168.1531355799262</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>213.3517587307594</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>22.70215338676945</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23785,7 +23785,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,19 +23940,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401877</v>
+        <v>201.7061255516594</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.5083079934646</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>82.88274362646172</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24183,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>63.13204062090065</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>318.0487214609057</v>
+        <v>206.5811471483088</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S23" t="n">
-        <v>8.815561323683994</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T23" t="n">
         <v>213.9375272825098</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.2663904214193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
         <v>153.8834111013403</v>
@@ -24417,22 +24417,22 @@
         <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9358063394608</v>
+        <v>170.3781838970964</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>13.88641355168579</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>353.6242409897445</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0525194866071</v>
+        <v>113.4948970442427</v>
       </c>
       <c r="H28" t="n">
         <v>153.8834111013403</v>
@@ -24657,16 +24657,16 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>39.8316776615865</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>213.2437514678602</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>318.0487214609057</v>
+        <v>193.4448259528959</v>
       </c>
       <c r="I29" t="n">
         <v>129.8188433654457</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>61.50247830091809</v>
+        <v>95.7876480496632</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24894,7 +24894,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>240.0782300243645</v>
+        <v>233.6328280969298</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>128.678810152161</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.0525194866071</v>
@@ -25122,28 +25122,28 @@
         <v>7.578826164188769</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>104.4688456625595</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.087549744345949</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>248.8674499870227</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>65.79147465032923</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H37" t="n">
         <v>153.8834111013403</v>
@@ -25359,7 +25359,7 @@
         <v>7.578826164188769</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S37" t="n">
         <v>207.661801906612</v>
@@ -25368,16 +25368,16 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>99.84636980478206</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H38" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>129.8188433654457</v>
+        <v>9.701874464779607</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2073201720322</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>34.24450762829412</v>
+        <v>87.26121072147259</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>82.2085866161209</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>129.8188433654457</v>
+        <v>0.2409009495443399</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826972</v>
       </c>
       <c r="S41" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>213.9375272825098</v>
@@ -25803,7 +25803,7 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I43" t="n">
         <v>127.2284271446648</v>
@@ -25839,13 +25839,13 @@
         <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
-        <v>223.9358063394608</v>
+        <v>136.8251939253633</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>100.3257886589759</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>353.6242409897446</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>37.63032907744036</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.8834111013403</v>
@@ -26046,7 +26046,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J46" t="n">
-        <v>27.01006717676059</v>
+        <v>27.0100671767606</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.578826164188754</v>
+        <v>7.578826164188769</v>
       </c>
       <c r="R46" t="n">
         <v>135.0968229573668</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4895125131729</v>
+        <v>33.8448067388855</v>
       </c>
       <c r="U46" t="n">
         <v>286.2678406362081</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>706082.362142936</v>
+        <v>706082.3621429359</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>706082.3621429357</v>
+        <v>706082.3621429359</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779955.0885461689</v>
+        <v>779955.0885461688</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779955.0885461689</v>
+        <v>779955.088546169</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>779955.088546169</v>
+        <v>779955.0885461689</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>779955.0885461689</v>
+        <v>779955.0885461688</v>
       </c>
     </row>
     <row r="14">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26325,37 +26325,37 @@
         <v>332525.5015181212</v>
       </c>
       <c r="F2" t="n">
+        <v>332525.5015181212</v>
+      </c>
+      <c r="G2" t="n">
         <v>332525.5015181213</v>
       </c>
-      <c r="G2" t="n">
-        <v>332525.5015181215</v>
-      </c>
       <c r="H2" t="n">
-        <v>332525.5015181213</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="I2" t="n">
         <v>369476.1749156272</v>
       </c>
       <c r="J2" t="n">
-        <v>369476.1749156272</v>
+        <v>369476.1749156271</v>
       </c>
       <c r="K2" t="n">
         <v>369476.1749156272</v>
       </c>
       <c r="L2" t="n">
+        <v>369476.1749156273</v>
+      </c>
+      <c r="M2" t="n">
+        <v>369476.1749156273</v>
+      </c>
+      <c r="N2" t="n">
         <v>369476.1749156272</v>
-      </c>
-      <c r="M2" t="n">
-        <v>369476.1749156272</v>
-      </c>
-      <c r="N2" t="n">
-        <v>369476.1749156271</v>
       </c>
       <c r="O2" t="n">
         <v>369476.1749156272</v>
       </c>
       <c r="P2" t="n">
-        <v>369476.1749156272</v>
+        <v>369476.1749156273</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.740090394581784e-10</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>62418.87211854678</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="J5" t="n">
         <v>62418.87211854677</v>
@@ -26502,7 +26502,7 @@
         <v>62418.87211854677</v>
       </c>
       <c r="M5" t="n">
-        <v>62418.87211854678</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="N5" t="n">
         <v>62418.87211854677</v>
@@ -26511,7 +26511,7 @@
         <v>62418.87211854678</v>
       </c>
       <c r="P5" t="n">
-        <v>62418.87211854679</v>
+        <v>62418.87211854677</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925156</v>
+        <v>-366360.8073925155</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.071822029</v>
+        <v>223607.0718220292</v>
       </c>
       <c r="D6" t="n">
-        <v>223607.0718220291</v>
+        <v>223607.0718220294</v>
       </c>
       <c r="E6" t="n">
-        <v>250138.7726039274</v>
+        <v>255600.3449751645</v>
       </c>
       <c r="F6" t="n">
-        <v>250138.7726039276</v>
+        <v>255600.3449751648</v>
       </c>
       <c r="G6" t="n">
-        <v>250138.7726039277</v>
+        <v>255600.3449751649</v>
       </c>
       <c r="H6" t="n">
-        <v>250138.7726039276</v>
+        <v>255600.3449751648</v>
       </c>
       <c r="I6" t="n">
-        <v>125587.6642592258</v>
+        <v>129603.3407149085</v>
       </c>
       <c r="J6" t="n">
-        <v>100637.0306699771</v>
+        <v>104652.7071256597</v>
       </c>
       <c r="K6" t="n">
-        <v>277060.24986257</v>
+        <v>281075.9263182527</v>
       </c>
       <c r="L6" t="n">
-        <v>277060.2498625701</v>
+        <v>281075.9263182528</v>
       </c>
       <c r="M6" t="n">
-        <v>277060.24986257</v>
+        <v>281075.9263182529</v>
       </c>
       <c r="N6" t="n">
-        <v>277060.24986257</v>
+        <v>281075.9263182528</v>
       </c>
       <c r="O6" t="n">
-        <v>277060.2498625701</v>
+        <v>281075.9263182528</v>
       </c>
       <c r="P6" t="n">
-        <v>277060.2498625701</v>
+        <v>281075.9263182528</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>520.4186562086464</v>
       </c>
       <c r="P3" t="n">
-        <v>520.4186562086466</v>
+        <v>520.4186562086464</v>
       </c>
     </row>
     <row r="4">
@@ -26810,7 +26810,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>840.0287074539193</v>
+        <v>840.0287074539192</v>
       </c>
       <c r="J4" t="n">
         <v>840.0287074539192</v>
@@ -26822,7 +26822,7 @@
         <v>840.0287074539192</v>
       </c>
       <c r="M4" t="n">
-        <v>840.0287074539193</v>
+        <v>840.0287074539192</v>
       </c>
       <c r="N4" t="n">
         <v>840.0287074539192</v>
@@ -26831,7 +26831,7 @@
         <v>840.0287074539193</v>
       </c>
       <c r="P4" t="n">
-        <v>840.0287074539194</v>
+        <v>840.0287074539192</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.7414346993638</v>
+        <v>165.7414346993637</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>260.8147443664145</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>95.278929311458</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458411</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>248.25943146949</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>107.4781987052507</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>3.806844538051962</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>10.52067551358118</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>121.1574944321151</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.092135301341291</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H44" t="n">
         <v>21.4260806548615</v>
       </c>
       <c r="I44" t="n">
-        <v>80.65704620496021</v>
+        <v>80.65704620496018</v>
       </c>
       <c r="J44" t="n">
-        <v>177.5673685322156</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K44" t="n">
         <v>266.1274558379924</v>
       </c>
       <c r="L44" t="n">
-        <v>330.1546415664161</v>
+        <v>330.154641566416</v>
       </c>
       <c r="M44" t="n">
         <v>367.3606527316442</v>
@@ -34386,7 +34386,7 @@
         <v>352.5012617538677</v>
       </c>
       <c r="P44" t="n">
-        <v>300.8516715020046</v>
+        <v>300.8516715020045</v>
       </c>
       <c r="Q44" t="n">
         <v>225.9270760227195</v>
@@ -34395,13 +34395,13 @@
         <v>131.42009412288</v>
       </c>
       <c r="S44" t="n">
-        <v>47.67453317931472</v>
+        <v>47.67453317931471</v>
       </c>
       <c r="T44" t="n">
-        <v>9.158322281621507</v>
+        <v>9.158322281621505</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1673708241073033</v>
+        <v>0.1673708241073032</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34453,34 +34453,34 @@
         <v>180.7571100531485</v>
       </c>
       <c r="L45" t="n">
-        <v>243.0502412793307</v>
+        <v>243.0502412793306</v>
       </c>
       <c r="M45" t="n">
         <v>283.6281676337123</v>
       </c>
       <c r="N45" t="n">
-        <v>291.1349612690239</v>
+        <v>291.1349612690238</v>
       </c>
       <c r="O45" t="n">
-        <v>266.3316117297212</v>
+        <v>266.3316117297211</v>
       </c>
       <c r="P45" t="n">
-        <v>213.7545986227553</v>
+        <v>213.7545986227552</v>
       </c>
       <c r="Q45" t="n">
         <v>142.8892883990231</v>
       </c>
       <c r="R45" t="n">
-        <v>69.5004386536755</v>
+        <v>69.50043865367549</v>
       </c>
       <c r="S45" t="n">
-        <v>20.79219819852469</v>
+        <v>20.79219819852468</v>
       </c>
       <c r="T45" t="n">
-        <v>4.511931557129679</v>
+        <v>4.511931557129678</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07364414946348775</v>
+        <v>0.07364414946348774</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9384598718516576</v>
+        <v>0.9384598718516574</v>
       </c>
       <c r="H46" t="n">
-        <v>8.34376140609929</v>
+        <v>8.343761406099288</v>
       </c>
       <c r="I46" t="n">
-        <v>28.2220477825935</v>
+        <v>28.22204778259349</v>
       </c>
       <c r="J46" t="n">
-        <v>66.34911293991219</v>
+        <v>66.34911293991217</v>
       </c>
       <c r="K46" t="n">
-        <v>109.0319742024017</v>
+        <v>109.0319742024016</v>
       </c>
       <c r="L46" t="n">
         <v>139.5233885842001</v>
@@ -34547,19 +34547,19 @@
         <v>113.5024557737677</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.58321708750563</v>
+        <v>78.58321708750562</v>
       </c>
       <c r="R46" t="n">
-        <v>42.1965684198027</v>
+        <v>42.19656841980269</v>
       </c>
       <c r="S46" t="n">
-        <v>16.35479613036025</v>
+        <v>16.35479613036024</v>
       </c>
       <c r="T46" t="n">
-        <v>4.009783088820718</v>
+        <v>4.009783088820717</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05118872028281775</v>
+        <v>0.05118872028281773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35740,7 +35740,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245897</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K24" t="n">
         <v>307.380908091368</v>
@@ -36448,13 +36448,13 @@
         <v>607.1991974616939</v>
       </c>
       <c r="N24" t="n">
-        <v>504.3685940038549</v>
+        <v>323.9577264537876</v>
       </c>
       <c r="O24" t="n">
-        <v>123.7353672852767</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P24" t="n">
-        <v>398.2429598483621</v>
+        <v>79.78019120842495</v>
       </c>
       <c r="Q24" t="n">
         <v>212.9848020488507</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>307.380908091368</v>
+        <v>258.0939336328028</v>
       </c>
       <c r="L27" t="n">
         <v>475.3362068029156</v>
@@ -36685,10 +36685,10 @@
         <v>607.1991974616939</v>
       </c>
       <c r="N27" t="n">
-        <v>504.3685940038549</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O27" t="n">
-        <v>123.7353672852767</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P27" t="n">
         <v>398.2429598483621</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>307.380908091368</v>
+        <v>258.0939336328028</v>
       </c>
       <c r="L30" t="n">
-        <v>340.5691772775264</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M30" t="n">
         <v>607.1991974616939</v>
       </c>
       <c r="N30" t="n">
-        <v>639.1356235292441</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O30" t="n">
-        <v>123.7353672852767</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P30" t="n">
         <v>398.2429598483621</v>
@@ -37153,7 +37153,7 @@
         <v>307.380908091368</v>
       </c>
       <c r="L33" t="n">
-        <v>426.0492323443504</v>
+        <v>475.3362068029156</v>
       </c>
       <c r="M33" t="n">
         <v>607.1991974616939</v>
@@ -37168,7 +37168,7 @@
         <v>398.2429598483621</v>
       </c>
       <c r="Q33" t="n">
-        <v>212.9848020488507</v>
+        <v>163.6978275902856</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K36" t="n">
-        <v>42.91567107878947</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L36" t="n">
         <v>475.3362068029156</v>
       </c>
       <c r="M36" t="n">
-        <v>607.1991974616939</v>
+        <v>452.9009060898539</v>
       </c>
       <c r="N36" t="n">
-        <v>639.1356235292441</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O36" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P36" t="n">
-        <v>344.1561357946712</v>
+        <v>398.2429598483621</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.90751431300157</v>
+        <v>212.9848020488507</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>307.380908091368</v>
@@ -37633,16 +37633,16 @@
         <v>607.1991974616939</v>
       </c>
       <c r="N39" t="n">
-        <v>399.3572770905801</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O39" t="n">
-        <v>123.7353672852767</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P39" t="n">
         <v>398.2429598483621</v>
       </c>
       <c r="Q39" t="n">
-        <v>212.9848020488507</v>
+        <v>163.6978275902856</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K42" t="n">
         <v>307.380908091368</v>
       </c>
       <c r="L42" t="n">
-        <v>475.3362068029156</v>
+        <v>321.0379154310757</v>
       </c>
       <c r="M42" t="n">
-        <v>141.494133711694</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N42" t="n">
-        <v>576.2113384771252</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O42" t="n">
         <v>517.5976865620062</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>165.6180791776031</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K44" t="n">
         <v>370.1830173641766</v>
       </c>
       <c r="L44" t="n">
-        <v>512.0494411468793</v>
+        <v>512.0494411468792</v>
       </c>
       <c r="M44" t="n">
-        <v>586.527952997204</v>
+        <v>586.5279529972039</v>
       </c>
       <c r="N44" t="n">
         <v>581.2387929719735</v>
       </c>
       <c r="O44" t="n">
-        <v>503.2032315949264</v>
+        <v>503.2032315949263</v>
       </c>
       <c r="P44" t="n">
-        <v>391.4173839182177</v>
+        <v>391.4173839182176</v>
       </c>
       <c r="Q44" t="n">
         <v>215.9363768081747</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>258.0939336328025</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L45" t="n">
         <v>475.3362068029156</v>
       </c>
       <c r="M45" t="n">
-        <v>607.199197461694</v>
+        <v>607.1991974616939</v>
       </c>
       <c r="N45" t="n">
-        <v>159.7932491856906</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O45" t="n">
-        <v>517.5976865620063</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P45" t="n">
         <v>398.2429598483621</v>
       </c>
       <c r="Q45" t="n">
-        <v>212.9848020488507</v>
+        <v>163.6978275902856</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>86.7624823765188</v>
+        <v>86.76248237651878</v>
       </c>
       <c r="L46" t="n">
         <v>167.1134138445162</v>
